--- a/manual/output_1223_chunk_1.xlsx
+++ b/manual/output_1223_chunk_1.xlsx
@@ -70,21 +70,21 @@
     <t>كوكاكولا اكشن - 300 مل</t>
   </si>
   <si>
+    <t>شويبس رمان - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>عصير بيتى مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
     <t>سفن اب ستار كانز - 320 مل</t>
   </si>
   <si>
-    <t>شويبس رمان - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>عصير بيتى مانجو - 235 مل</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
     <t>لبن بخيره - 500 مل</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>لبن جهينة مكس شوكولاتة - 200 مل</t>
   </si>
   <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
     <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
   </si>
   <si>
-    <t>سبرايت اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>شويبس جولد اناناس - 950 مل</t>
-  </si>
-  <si>
     <t>عصير جهينة مانجو - 1 لتر</t>
   </si>
   <si>
@@ -124,60 +124,60 @@
     <t>فاين بيبى حفاضات دبل لوك ماكس مقاس 5 - 58 حفاضة</t>
   </si>
   <si>
+    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>فاين بيبى حفاضات دبل لوك كبير مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>لبن جهينة مكس فراولة - 200 مل</t>
+  </si>
+  <si>
     <t>اندومى لحمة بيف جامبو عرض 44 كيس - 100 جم</t>
   </si>
   <si>
-    <t>لبن المراعى كامل دسم بلاستيك - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير جهينة جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>فاين بيبى حفاضات دبل لوك كبير مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>لبن جهينة مكس فراولة - 200 مل</t>
-  </si>
-  <si>
     <t>بيبسى دايت كانز - 320 مل</t>
   </si>
   <si>
     <t>سبرايت - 2.45 لتر</t>
   </si>
   <si>
+    <t>شويبس جولد اناناس جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>فانتا برتقال - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب 2 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>تويست بالتوت و جوز الهند - 250 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة جيب مانع للتسريب كبير مقاس 4 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>صابون دوش  - 60 جم</t>
+  </si>
+  <si>
     <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
   </si>
   <si>
-    <t>شويبس جولد اناناس جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى كوكتيل - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>فانتا برتقال - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا سحب 2 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>لبن جهينة كامل الدسم - 1 لتر</t>
-  </si>
-  <si>
-    <t>تويست بالتوت و جوز الهند - 250 مل</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة جيب مانع للتسريب كبير مقاس 4 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>بيبسى كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>صابون دوش  - 60 جم</t>
-  </si>
-  <si>
     <t>حفاضات بيبى جوى مضغوطة وسط مقاس 3 - 58 حفاضة</t>
   </si>
   <si>
@@ -241,37 +241,37 @@
     <t>صلصة هاينز - 360 جم</t>
   </si>
   <si>
+    <t>كاتشب هاينز اسكويزى دوى باك - 285 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب 2 طبقة - 650 منديل</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز الكبير - 14 جم</t>
+  </si>
+  <si>
+    <t>زيووو شرائح كيرليى ليمون حلو - 5 جنية</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
+  </si>
+  <si>
+    <t>بيبسى تربو - 390 مل</t>
+  </si>
+  <si>
+    <t>كوكا كولا جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
+  </si>
+  <si>
     <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز اسكويزى دوى باك - 285 جم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا سحب 2 طبقة - 650 منديل</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز الكبير - 14 جم</t>
-  </si>
-  <si>
-    <t>زيووو شرائح كيرليى ليمون حلو - 5 جنية</t>
-  </si>
-  <si>
-    <t>عصير بيتى برتقال - 235 مل</t>
-  </si>
-  <si>
-    <t>حفاضات بيبى جوى مضغوطة كبير جدا مقاس 5 - 58 حفاضة</t>
-  </si>
-  <si>
-    <t>بيبسى تربو - 390 مل</t>
-  </si>
-  <si>
-    <t>كوكا كولا جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>لبن المراعى كامل الدسم - 1.5 لتر</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
     <t>عصير جهينة برتقال - 1 لتر</t>
@@ -8466,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>313</v>
+        <v>314.75</v>
       </c>
       <c r="E2" t="s">
         <v>2683</v>
@@ -8483,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>182.5</v>
+        <v>182.75</v>
       </c>
       <c r="E3" t="s">
         <v>2683</v>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>189</v>
+        <v>188.75</v>
       </c>
       <c r="E4" t="s">
         <v>2683</v>
@@ -8517,7 +8517,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>72.75</v>
+        <v>73.25</v>
       </c>
       <c r="E5" t="s">
         <v>2684</v>
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E6" t="s">
         <v>2683</v>
@@ -8585,7 +8585,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>398.75</v>
+        <v>399</v>
       </c>
       <c r="E9" t="s">
         <v>2684</v>
@@ -8602,7 +8602,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>797.5</v>
+        <v>798</v>
       </c>
       <c r="E10" t="s">
         <v>2683</v>
@@ -8636,7 +8636,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>357.25</v>
+        <v>357.5</v>
       </c>
       <c r="E12" t="s">
         <v>2684</v>
@@ -8653,7 +8653,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>714.5</v>
+        <v>715</v>
       </c>
       <c r="E13" t="s">
         <v>2683</v>
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>400.25</v>
+        <v>403.5</v>
       </c>
       <c r="E14" t="s">
         <v>2683</v>
@@ -8687,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>101.5</v>
+        <v>101.25</v>
       </c>
       <c r="E15" t="s">
         <v>2683</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>140</v>
+        <v>2328</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -8704,7 +8704,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>313</v>
+        <v>188.75</v>
       </c>
       <c r="E16" t="s">
         <v>2683</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2328</v>
+        <v>2778</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -8721,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>189</v>
+        <v>183.5</v>
       </c>
       <c r="E17" t="s">
         <v>2683</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2778</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -8738,7 +8738,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>183.5</v>
+        <v>193.25</v>
       </c>
       <c r="E18" t="s">
         <v>2683</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>305</v>
+        <v>2912</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -8755,10 +8755,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>193.25</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8766,30 +8766,30 @@
         <v>2912</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>72.5</v>
+        <v>584</v>
       </c>
       <c r="E20" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2912</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>580</v>
+        <v>314.75</v>
       </c>
       <c r="E21" t="s">
         <v>2683</v>
@@ -8806,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>484.25</v>
+        <v>484.5</v>
       </c>
       <c r="E22" t="s">
         <v>2683</v>
@@ -8823,7 +8823,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>452.75</v>
+        <v>457</v>
       </c>
       <c r="E23" t="s">
         <v>2683</v>
@@ -8882,16 +8882,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20927</v>
+        <v>6936</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>359.5</v>
+        <v>101.25</v>
       </c>
       <c r="E27" t="s">
         <v>2683</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6936</v>
+        <v>11039</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -8908,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>101.5</v>
+        <v>256</v>
       </c>
       <c r="E28" t="s">
         <v>2683</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11039</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -8925,7 +8925,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>255.5</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
         <v>2683</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>143</v>
+        <v>8648</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -8942,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>190.75</v>
+        <v>126.75</v>
       </c>
       <c r="E30" t="s">
         <v>2683</v>
@@ -8950,16 +8950,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8648</v>
+        <v>20927</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>126.75</v>
+        <v>359.5</v>
       </c>
       <c r="E31" t="s">
         <v>2683</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
         <v>2683</v>
@@ -9035,16 +9035,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7005</v>
+        <v>990</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>359.5</v>
+        <v>550</v>
       </c>
       <c r="E36" t="s">
         <v>2683</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>990</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -9061,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>549</v>
+        <v>182.75</v>
       </c>
       <c r="E37" t="s">
         <v>2683</v>
@@ -9069,19 +9069,19 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>361</v>
+        <v>9209</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>182.5</v>
+        <v>284.25</v>
       </c>
       <c r="E38" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9089,30 +9089,30 @@
         <v>9209</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>284.25</v>
+        <v>852.75</v>
       </c>
       <c r="E39" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9209</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>852.75</v>
+        <v>263.5</v>
       </c>
       <c r="E40" t="s">
         <v>2683</v>
@@ -9120,16 +9120,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>206</v>
+        <v>7005</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>263.5</v>
+        <v>359.5</v>
       </c>
       <c r="E41" t="s">
         <v>2683</v>
@@ -9146,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>313</v>
+        <v>314.75</v>
       </c>
       <c r="E42" t="s">
         <v>2683</v>
@@ -9171,16 +9171,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9760</v>
+        <v>5493</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>399.25</v>
+        <v>264.75</v>
       </c>
       <c r="E44" t="s">
         <v>2683</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>5493</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -9197,7 +9197,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>265</v>
+        <v>189.75</v>
       </c>
       <c r="E45" t="s">
         <v>2683</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -9214,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>188.75</v>
+        <v>189.75</v>
       </c>
       <c r="E46" t="s">
         <v>2683</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>145</v>
+        <v>2776</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -9231,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>188.75</v>
+        <v>183.5</v>
       </c>
       <c r="E47" t="s">
         <v>2683</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2776</v>
+        <v>1700</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -9248,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>183.5</v>
+        <v>398.25</v>
       </c>
       <c r="E48" t="s">
         <v>2683</v>
@@ -9256,16 +9256,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1700</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>394.75</v>
+        <v>527.5</v>
       </c>
       <c r="E49" t="s">
         <v>2683</v>
@@ -9273,16 +9273,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>248</v>
+        <v>19925</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
         <v>2683</v>
@@ -9290,19 +9290,19 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>19925</v>
+        <v>3576</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>255.5</v>
+        <v>280.5</v>
       </c>
       <c r="E51" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9310,30 +9310,30 @@
         <v>3576</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>280.5</v>
+        <v>841.5</v>
       </c>
       <c r="E52" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3576</v>
+        <v>434</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>841.5</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s">
         <v>2683</v>
@@ -9341,16 +9341,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>434</v>
+        <v>12304</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>268</v>
+        <v>250.25</v>
       </c>
       <c r="E54" t="s">
         <v>2683</v>
@@ -9358,16 +9358,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12304</v>
+        <v>9760</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>251</v>
+        <v>402.25</v>
       </c>
       <c r="E55" t="s">
         <v>2683</v>
@@ -9418,7 +9418,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>188.25</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
         <v>2683</v>
@@ -9435,7 +9435,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>101.5</v>
+        <v>101.25</v>
       </c>
       <c r="E59" t="s">
         <v>2683</v>
@@ -9486,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>265</v>
+        <v>264.75</v>
       </c>
       <c r="E62" t="s">
         <v>2683</v>
@@ -9503,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>112.75</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
         <v>2683</v>
@@ -9571,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>182.5</v>
+        <v>182.75</v>
       </c>
       <c r="E67" t="s">
         <v>2683</v>
@@ -9588,7 +9588,7 @@
         <v>25</v>
       </c>
       <c r="D68">
-        <v>357.25</v>
+        <v>357.5</v>
       </c>
       <c r="E68" t="s">
         <v>2684</v>
@@ -9605,7 +9605,7 @@
         <v>29</v>
       </c>
       <c r="D69">
-        <v>714.5</v>
+        <v>715</v>
       </c>
       <c r="E69" t="s">
         <v>2683</v>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>314.25</v>
+        <v>315.5</v>
       </c>
       <c r="E72" t="s">
         <v>2683</v>
@@ -9741,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>182.5</v>
+        <v>182.75</v>
       </c>
       <c r="E77" t="s">
         <v>2683</v>
@@ -9758,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>592.75</v>
+        <v>597.5</v>
       </c>
       <c r="E78" t="s">
         <v>2683</v>
@@ -9792,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>182.5</v>
+        <v>182.75</v>
       </c>
       <c r="E80" t="s">
         <v>2683</v>
@@ -9809,7 +9809,7 @@
         <v>29</v>
       </c>
       <c r="D81">
-        <v>401.25</v>
+        <v>404.5</v>
       </c>
       <c r="E81" t="s">
         <v>2683</v>
@@ -9826,7 +9826,7 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>153.75</v>
+        <v>154.25</v>
       </c>
       <c r="E82" t="s">
         <v>2683</v>
@@ -9843,7 +9843,7 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>379.75</v>
+        <v>380</v>
       </c>
       <c r="E83" t="s">
         <v>2683</v>
@@ -9851,16 +9851,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>11089</v>
+        <v>7567</v>
       </c>
       <c r="B84" t="s">
         <v>75</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>166</v>
+        <v>404</v>
       </c>
       <c r="E84" t="s">
         <v>2683</v>
@@ -9868,16 +9868,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>7567</v>
+        <v>11583</v>
       </c>
       <c r="B85" t="s">
         <v>76</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>403.25</v>
+        <v>516.75</v>
       </c>
       <c r="E85" t="s">
         <v>2683</v>
@@ -9885,19 +9885,19 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>11583</v>
+        <v>9507</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>512.25</v>
+        <v>143.75</v>
       </c>
       <c r="E86" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -9905,21 +9905,21 @@
         <v>9507</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>143.75</v>
+        <v>862.5</v>
       </c>
       <c r="E87" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>9507</v>
+        <v>12349</v>
       </c>
       <c r="B88" t="s">
         <v>78</v>
@@ -9928,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>862.5</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
         <v>2683</v>
@@ -9936,16 +9936,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>12349</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
         <v>79</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>45.25</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
         <v>2683</v>
@@ -9953,19 +9953,19 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>146</v>
+        <v>3577</v>
       </c>
       <c r="B90" t="s">
         <v>80</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>188.75</v>
+        <v>323.25</v>
       </c>
       <c r="E90" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -9973,30 +9973,30 @@
         <v>3577</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D91">
-        <v>323.25</v>
+        <v>969.75</v>
       </c>
       <c r="E91" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>3577</v>
+        <v>593</v>
       </c>
       <c r="B92" t="s">
         <v>81</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>969.75</v>
+        <v>125.75</v>
       </c>
       <c r="E92" t="s">
         <v>2683</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B93" t="s">
         <v>82</v>
@@ -10013,7 +10013,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>125.25</v>
+        <v>265.5</v>
       </c>
       <c r="E93" t="s">
         <v>2683</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>615</v>
+        <v>10993</v>
       </c>
       <c r="B94" t="s">
         <v>83</v>
@@ -10030,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>265.5</v>
+        <v>528</v>
       </c>
       <c r="E94" t="s">
         <v>2683</v>
@@ -10038,16 +10038,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>10993</v>
+        <v>11770</v>
       </c>
       <c r="B95" t="s">
         <v>84</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>522.5</v>
+        <v>131.75</v>
       </c>
       <c r="E95" t="s">
         <v>2683</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>11770</v>
+        <v>11089</v>
       </c>
       <c r="B96" t="s">
         <v>85</v>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>130.25</v>
+        <v>167.5</v>
       </c>
       <c r="E96" t="s">
         <v>2683</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>92.25</v>
+        <v>93</v>
       </c>
       <c r="E106" t="s">
         <v>2683</v>
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>219.25</v>
+        <v>221.75</v>
       </c>
       <c r="E107" t="s">
         <v>2683</v>
@@ -10336,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>83</v>
+        <v>83.75</v>
       </c>
       <c r="E112" t="s">
         <v>2683</v>
@@ -10387,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>278.5</v>
+        <v>280.25</v>
       </c>
       <c r="E115" t="s">
         <v>2683</v>
@@ -10489,7 +10489,7 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>308.75</v>
+        <v>308.25</v>
       </c>
       <c r="E121" t="s">
         <v>2683</v>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>609</v>
+        <v>609.25</v>
       </c>
       <c r="E122" t="s">
         <v>2683</v>
@@ -10591,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>713.75</v>
+        <v>714.5</v>
       </c>
       <c r="E127" t="s">
         <v>2683</v>
@@ -10625,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="D129">
-        <v>188.25</v>
+        <v>189</v>
       </c>
       <c r="E129" t="s">
         <v>2683</v>
@@ -10642,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>202.25</v>
+        <v>204.5</v>
       </c>
       <c r="E130" t="s">
         <v>2683</v>
@@ -10659,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>232.25</v>
+        <v>234.5</v>
       </c>
       <c r="E131" t="s">
         <v>2683</v>
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E132" t="s">
         <v>2683</v>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E135" t="s">
         <v>2683</v>
@@ -10863,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>183.25</v>
+        <v>184.75</v>
       </c>
       <c r="E143" t="s">
         <v>2683</v>
@@ -10880,7 +10880,7 @@
         <v>29</v>
       </c>
       <c r="D144">
-        <v>391.75</v>
+        <v>395</v>
       </c>
       <c r="E144" t="s">
         <v>2683</v>
@@ -10897,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>769</v>
+        <v>769.5</v>
       </c>
       <c r="E145" t="s">
         <v>2683</v>
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>328.5</v>
+        <v>328.25</v>
       </c>
       <c r="E147" t="s">
         <v>2683</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>232.25</v>
+        <v>234.75</v>
       </c>
       <c r="E151" t="s">
         <v>2683</v>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>167.5</v>
+        <v>168.75</v>
       </c>
       <c r="E155" t="s">
         <v>2683</v>
@@ -11084,7 +11084,7 @@
         <v>80</v>
       </c>
       <c r="D156">
-        <v>402.75</v>
+        <v>403</v>
       </c>
       <c r="E156" t="s">
         <v>2684</v>
@@ -11101,7 +11101,7 @@
         <v>29</v>
       </c>
       <c r="D157">
-        <v>805.5</v>
+        <v>806</v>
       </c>
       <c r="E157" t="s">
         <v>2683</v>
@@ -11152,7 +11152,7 @@
         <v>25</v>
       </c>
       <c r="D160">
-        <v>302.5</v>
+        <v>303.25</v>
       </c>
       <c r="E160" t="s">
         <v>2684</v>
@@ -11169,7 +11169,7 @@
         <v>29</v>
       </c>
       <c r="D161">
-        <v>907.5</v>
+        <v>909.75</v>
       </c>
       <c r="E161" t="s">
         <v>2683</v>
@@ -11203,7 +11203,7 @@
         <v>80</v>
       </c>
       <c r="D163">
-        <v>261.5</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
         <v>2684</v>
@@ -11220,7 +11220,7 @@
         <v>29</v>
       </c>
       <c r="D164">
-        <v>784.5</v>
+        <v>792</v>
       </c>
       <c r="E164" t="s">
         <v>2683</v>
@@ -11237,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>232.25</v>
+        <v>234.75</v>
       </c>
       <c r="E165" t="s">
         <v>2683</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>592.75</v>
+        <v>597.5</v>
       </c>
       <c r="E169" t="s">
         <v>2683</v>
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>328.5</v>
+        <v>328.25</v>
       </c>
       <c r="E171" t="s">
         <v>2683</v>
@@ -11441,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>497.25</v>
+        <v>497</v>
       </c>
       <c r="E177" t="s">
         <v>2683</v>
@@ -11492,7 +11492,7 @@
         <v>25</v>
       </c>
       <c r="D180">
-        <v>354.25</v>
+        <v>354.75</v>
       </c>
       <c r="E180" t="s">
         <v>2684</v>
@@ -11509,7 +11509,7 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>1062.75</v>
+        <v>1064.25</v>
       </c>
       <c r="E181" t="s">
         <v>2683</v>
@@ -11594,7 +11594,7 @@
         <v>80</v>
       </c>
       <c r="D186">
-        <v>262</v>
+        <v>261.75</v>
       </c>
       <c r="E186" t="s">
         <v>2684</v>
@@ -11611,7 +11611,7 @@
         <v>29</v>
       </c>
       <c r="D187">
-        <v>786</v>
+        <v>785.25</v>
       </c>
       <c r="E187" t="s">
         <v>2683</v>
@@ -11628,7 +11628,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>151</v>
+        <v>151.75</v>
       </c>
       <c r="E188" t="s">
         <v>2683</v>
@@ -11747,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="D195">
-        <v>393.75</v>
+        <v>397</v>
       </c>
       <c r="E195" t="s">
         <v>2683</v>
@@ -11764,7 +11764,7 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>266</v>
+        <v>266.5</v>
       </c>
       <c r="E196" t="s">
         <v>2683</v>
@@ -11798,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="D198">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E198" t="s">
         <v>2683</v>
@@ -11815,7 +11815,7 @@
         <v>80</v>
       </c>
       <c r="D199">
-        <v>302.5</v>
+        <v>303.25</v>
       </c>
       <c r="E199" t="s">
         <v>2684</v>
@@ -11832,7 +11832,7 @@
         <v>29</v>
       </c>
       <c r="D200">
-        <v>907.5</v>
+        <v>909.75</v>
       </c>
       <c r="E200" t="s">
         <v>2683</v>
@@ -11849,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>327.5</v>
+        <v>329.5</v>
       </c>
       <c r="E201" t="s">
         <v>2683</v>
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>275</v>
+        <v>275.25</v>
       </c>
       <c r="E203" t="s">
         <v>2683</v>
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>378.75</v>
+        <v>378</v>
       </c>
       <c r="E204" t="s">
         <v>2683</v>
@@ -12002,7 +12002,7 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>176.5</v>
+        <v>174.5</v>
       </c>
       <c r="E210" t="s">
         <v>2683</v>
@@ -12070,7 +12070,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E214" t="s">
         <v>2683</v>
@@ -12121,7 +12121,7 @@
         <v>3</v>
       </c>
       <c r="D217">
-        <v>48</v>
+        <v>47.75</v>
       </c>
       <c r="E217" t="s">
         <v>2684</v>
@@ -12138,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E218" t="s">
         <v>2683</v>
@@ -12155,7 +12155,7 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>195.75</v>
+        <v>197</v>
       </c>
       <c r="E219" t="s">
         <v>2683</v>
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>615.75</v>
+        <v>622.5</v>
       </c>
       <c r="E220" t="s">
         <v>2683</v>
@@ -12223,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>953</v>
+        <v>952.75</v>
       </c>
       <c r="E223" t="s">
         <v>2683</v>
@@ -12240,7 +12240,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E224" t="s">
         <v>2683</v>
@@ -12257,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>263.5</v>
+        <v>265</v>
       </c>
       <c r="E225" t="s">
         <v>2683</v>
@@ -12274,7 +12274,7 @@
         <v>80</v>
       </c>
       <c r="D226">
-        <v>146.5</v>
+        <v>147.75</v>
       </c>
       <c r="E226" t="s">
         <v>2684</v>
@@ -12291,7 +12291,7 @@
         <v>29</v>
       </c>
       <c r="D227">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="E227" t="s">
         <v>2683</v>
@@ -12461,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>236.75</v>
+        <v>238.25</v>
       </c>
       <c r="E237" t="s">
         <v>2683</v>
@@ -12512,7 +12512,7 @@
         <v>10</v>
       </c>
       <c r="D240">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="E240" t="s">
         <v>2684</v>
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E241" t="s">
         <v>2683</v>
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>794.25</v>
+        <v>778.25</v>
       </c>
       <c r="E249" t="s">
         <v>2683</v>
@@ -12716,7 +12716,7 @@
         <v>10</v>
       </c>
       <c r="D252">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="E252" t="s">
         <v>2684</v>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E253" t="s">
         <v>2683</v>
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>314.25</v>
+        <v>315.5</v>
       </c>
       <c r="E263" t="s">
         <v>2683</v>
@@ -12920,7 +12920,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>121.5</v>
+        <v>123.5</v>
       </c>
       <c r="E264" t="s">
         <v>2683</v>
@@ -12971,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>124.75</v>
+        <v>126.25</v>
       </c>
       <c r="E267" t="s">
         <v>2683</v>
@@ -12988,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E268" t="s">
         <v>2683</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>115.5</v>
+        <v>115.75</v>
       </c>
       <c r="E269" t="s">
         <v>2684</v>
@@ -13022,7 +13022,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1155</v>
+        <v>1157.5</v>
       </c>
       <c r="E270" t="s">
         <v>2683</v>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>72.25</v>
+        <v>71.75</v>
       </c>
       <c r="E271" t="s">
         <v>2683</v>
@@ -13073,7 +13073,7 @@
         <v>29</v>
       </c>
       <c r="D273">
-        <v>548</v>
+        <v>551.5</v>
       </c>
       <c r="E273" t="s">
         <v>2683</v>
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>477</v>
+        <v>474.5</v>
       </c>
       <c r="E274" t="s">
         <v>2683</v>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>141.25</v>
+        <v>142.5</v>
       </c>
       <c r="E282" t="s">
         <v>2683</v>
@@ -13277,7 +13277,7 @@
         <v>25</v>
       </c>
       <c r="D285">
-        <v>257</v>
+        <v>256.5</v>
       </c>
       <c r="E285" t="s">
         <v>2684</v>
@@ -13294,7 +13294,7 @@
         <v>29</v>
       </c>
       <c r="D286">
-        <v>771</v>
+        <v>769.5</v>
       </c>
       <c r="E286" t="s">
         <v>2683</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>598.25</v>
+        <v>596.5</v>
       </c>
       <c r="E290" t="s">
         <v>2683</v>
@@ -13379,7 +13379,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>489.5</v>
+        <v>492</v>
       </c>
       <c r="E291" t="s">
         <v>2683</v>
@@ -13498,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>144.5</v>
+        <v>144.75</v>
       </c>
       <c r="E298" t="s">
         <v>2683</v>
@@ -13583,7 +13583,7 @@
         <v>29</v>
       </c>
       <c r="D303">
-        <v>438.5</v>
+        <v>442.5</v>
       </c>
       <c r="E303" t="s">
         <v>2683</v>
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>280.5</v>
+        <v>284</v>
       </c>
       <c r="E307" t="s">
         <v>2683</v>
@@ -13668,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E308" t="s">
         <v>2683</v>
@@ -13719,7 +13719,7 @@
         <v>2</v>
       </c>
       <c r="D311">
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="E311" t="s">
         <v>2683</v>
@@ -13736,7 +13736,7 @@
         <v>11</v>
       </c>
       <c r="D312">
-        <v>24.25</v>
+        <v>24.5</v>
       </c>
       <c r="E312" t="s">
         <v>2684</v>
@@ -13753,7 +13753,7 @@
         <v>15</v>
       </c>
       <c r="D313">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E313" t="s">
         <v>2683</v>
@@ -13770,7 +13770,7 @@
         <v>16</v>
       </c>
       <c r="D314">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E314" t="s">
         <v>2683</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="E315" t="s">
         <v>2683</v>
@@ -13821,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>234.5</v>
+        <v>233.75</v>
       </c>
       <c r="E317" t="s">
         <v>2683</v>
@@ -13838,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>77</v>
+        <v>77.75</v>
       </c>
       <c r="E318" t="s">
         <v>2683</v>
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>280.5</v>
+        <v>286</v>
       </c>
       <c r="E322" t="s">
         <v>2683</v>
@@ -13957,7 +13957,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>146.75</v>
+        <v>148</v>
       </c>
       <c r="E325" t="s">
         <v>2683</v>
@@ -13974,7 +13974,7 @@
         <v>29</v>
       </c>
       <c r="D326">
-        <v>438.5</v>
+        <v>442.5</v>
       </c>
       <c r="E326" t="s">
         <v>2683</v>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>716.25</v>
+        <v>716.5</v>
       </c>
       <c r="E340" t="s">
         <v>2683</v>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E349" t="s">
         <v>2683</v>
@@ -14416,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>321.75</v>
+        <v>325.25</v>
       </c>
       <c r="E352" t="s">
         <v>2683</v>
@@ -14552,7 +14552,7 @@
         <v>2</v>
       </c>
       <c r="D360">
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="E360" t="s">
         <v>2683</v>
@@ -14569,7 +14569,7 @@
         <v>4</v>
       </c>
       <c r="D361">
-        <v>594.5</v>
+        <v>593.5</v>
       </c>
       <c r="E361" t="s">
         <v>2684</v>
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>7134</v>
+        <v>7122</v>
       </c>
       <c r="E362" t="s">
         <v>2683</v>
@@ -14654,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>883</v>
+        <v>882.25</v>
       </c>
       <c r="E366" t="s">
         <v>2683</v>
@@ -14807,7 +14807,7 @@
         <v>23</v>
       </c>
       <c r="D375">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="E375" t="s">
         <v>2684</v>
@@ -14824,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="D376">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E376" t="s">
         <v>2683</v>
@@ -14909,7 +14909,7 @@
         <v>80</v>
       </c>
       <c r="D381">
-        <v>133.5</v>
+        <v>135.75</v>
       </c>
       <c r="E381" t="s">
         <v>2684</v>
@@ -14926,7 +14926,7 @@
         <v>29</v>
       </c>
       <c r="D382">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E382" t="s">
         <v>2683</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E387" t="s">
         <v>2683</v>
@@ -15062,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>321.75</v>
+        <v>325.25</v>
       </c>
       <c r="E390" t="s">
         <v>2683</v>
@@ -15079,7 +15079,7 @@
         <v>25</v>
       </c>
       <c r="D391">
-        <v>262</v>
+        <v>261.75</v>
       </c>
       <c r="E391" t="s">
         <v>2684</v>
@@ -15096,7 +15096,7 @@
         <v>29</v>
       </c>
       <c r="D392">
-        <v>786</v>
+        <v>785.25</v>
       </c>
       <c r="E392" t="s">
         <v>2683</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="D393">
-        <v>154</v>
+        <v>154.25</v>
       </c>
       <c r="E393" t="s">
         <v>2683</v>
@@ -15164,7 +15164,7 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>385.25</v>
+        <v>387.5</v>
       </c>
       <c r="E396" t="s">
         <v>2683</v>
@@ -15215,7 +15215,7 @@
         <v>2</v>
       </c>
       <c r="D399">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E399" t="s">
         <v>2683</v>
@@ -15232,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="D400">
-        <v>148.75</v>
+        <v>150</v>
       </c>
       <c r="E400" t="s">
         <v>2683</v>
@@ -15249,7 +15249,7 @@
         <v>25</v>
       </c>
       <c r="D401">
-        <v>373.5</v>
+        <v>379.75</v>
       </c>
       <c r="E401" t="s">
         <v>2684</v>
@@ -15266,7 +15266,7 @@
         <v>29</v>
       </c>
       <c r="D402">
-        <v>747</v>
+        <v>759.5</v>
       </c>
       <c r="E402" t="s">
         <v>2683</v>
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>207.25</v>
+        <v>208.75</v>
       </c>
       <c r="E403" t="s">
         <v>2683</v>
@@ -15385,7 +15385,7 @@
         <v>10</v>
       </c>
       <c r="D409">
-        <v>39.75</v>
+        <v>39.5</v>
       </c>
       <c r="E409" t="s">
         <v>2684</v>
@@ -15402,7 +15402,7 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E410" t="s">
         <v>2683</v>
@@ -15453,7 +15453,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>275.25</v>
+        <v>277.5</v>
       </c>
       <c r="E413" t="s">
         <v>2683</v>
@@ -15572,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="D420">
-        <v>314.25</v>
+        <v>315.5</v>
       </c>
       <c r="E420" t="s">
         <v>2683</v>
@@ -15623,7 +15623,7 @@
         <v>2</v>
       </c>
       <c r="D423">
-        <v>125.25</v>
+        <v>125.75</v>
       </c>
       <c r="E423" t="s">
         <v>2683</v>
@@ -15640,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>237.25</v>
+        <v>239.25</v>
       </c>
       <c r="E424" t="s">
         <v>2683</v>
@@ -15657,7 +15657,7 @@
         <v>2</v>
       </c>
       <c r="D425">
-        <v>1188</v>
+        <v>1168.25</v>
       </c>
       <c r="E425" t="s">
         <v>2683</v>
@@ -15742,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="D430">
-        <v>233</v>
+        <v>233.75</v>
       </c>
       <c r="E430" t="s">
         <v>2683</v>
@@ -15759,7 +15759,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>45.25</v>
+        <v>45</v>
       </c>
       <c r="E431" t="s">
         <v>2683</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="D432">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="E432" t="s">
         <v>2683</v>
@@ -15827,7 +15827,7 @@
         <v>29</v>
       </c>
       <c r="D435">
-        <v>277</v>
+        <v>279.25</v>
       </c>
       <c r="E435" t="s">
         <v>2683</v>
@@ -15912,7 +15912,7 @@
         <v>2</v>
       </c>
       <c r="D440">
-        <v>110.25</v>
+        <v>111</v>
       </c>
       <c r="E440" t="s">
         <v>2683</v>
@@ -15929,7 +15929,7 @@
         <v>2</v>
       </c>
       <c r="D441">
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="E441" t="s">
         <v>2683</v>
@@ -15980,7 +15980,7 @@
         <v>2</v>
       </c>
       <c r="D444">
-        <v>119.5</v>
+        <v>120.5</v>
       </c>
       <c r="E444" t="s">
         <v>2683</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>490.25</v>
+        <v>490.5</v>
       </c>
       <c r="E457" t="s">
         <v>2683</v>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>230.5</v>
+        <v>233.75</v>
       </c>
       <c r="E465" t="s">
         <v>2683</v>
@@ -16354,7 +16354,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>92.25</v>
+        <v>92</v>
       </c>
       <c r="E466" t="s">
         <v>2683</v>
@@ -16388,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="D468">
-        <v>883</v>
+        <v>882.25</v>
       </c>
       <c r="E468" t="s">
         <v>2683</v>
@@ -16405,7 +16405,7 @@
         <v>29</v>
       </c>
       <c r="D469">
-        <v>286.5</v>
+        <v>288.75</v>
       </c>
       <c r="E469" t="s">
         <v>2683</v>
@@ -16456,7 +16456,7 @@
         <v>29</v>
       </c>
       <c r="D472">
-        <v>163.5</v>
+        <v>165</v>
       </c>
       <c r="E472" t="s">
         <v>2683</v>
@@ -16524,7 +16524,7 @@
         <v>29</v>
       </c>
       <c r="D476">
-        <v>391.75</v>
+        <v>395</v>
       </c>
       <c r="E476" t="s">
         <v>2683</v>
@@ -16796,7 +16796,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>94.25</v>
+        <v>94</v>
       </c>
       <c r="E492" t="s">
         <v>2684</v>
@@ -16813,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E493" t="s">
         <v>2683</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="D494">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E494" t="s">
         <v>2683</v>
@@ -16847,7 +16847,7 @@
         <v>3</v>
       </c>
       <c r="D495">
-        <v>125</v>
+        <v>125.25</v>
       </c>
       <c r="E495" t="s">
         <v>2684</v>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
       <c r="D496">
-        <v>750</v>
+        <v>751.5</v>
       </c>
       <c r="E496" t="s">
         <v>2683</v>
@@ -17102,7 +17102,7 @@
         <v>80</v>
       </c>
       <c r="D510">
-        <v>211.75</v>
+        <v>212.5</v>
       </c>
       <c r="E510" t="s">
         <v>2684</v>
@@ -17119,7 +17119,7 @@
         <v>29</v>
       </c>
       <c r="D511">
-        <v>635.25</v>
+        <v>637.5</v>
       </c>
       <c r="E511" t="s">
         <v>2683</v>
@@ -17136,7 +17136,7 @@
         <v>2</v>
       </c>
       <c r="D512">
-        <v>125.25</v>
+        <v>125.75</v>
       </c>
       <c r="E512" t="s">
         <v>2683</v>
@@ -17153,7 +17153,7 @@
         <v>4</v>
       </c>
       <c r="D513">
-        <v>601.75</v>
+        <v>597.75</v>
       </c>
       <c r="E513" t="s">
         <v>2684</v>
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="D514">
-        <v>7221</v>
+        <v>7173</v>
       </c>
       <c r="E514" t="s">
         <v>2683</v>
@@ -17187,7 +17187,7 @@
         <v>5</v>
       </c>
       <c r="D515">
-        <v>311</v>
+        <v>314.75</v>
       </c>
       <c r="E515" t="s">
         <v>2683</v>
@@ -17204,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>295.25</v>
+        <v>297.5</v>
       </c>
       <c r="E516" t="s">
         <v>2683</v>
@@ -17306,7 +17306,7 @@
         <v>29</v>
       </c>
       <c r="D522">
-        <v>277</v>
+        <v>279.25</v>
       </c>
       <c r="E522" t="s">
         <v>2683</v>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>267</v>
+        <v>269.25</v>
       </c>
       <c r="E525" t="s">
         <v>2683</v>
@@ -17442,7 +17442,7 @@
         <v>2</v>
       </c>
       <c r="D530">
-        <v>521.25</v>
+        <v>526.75</v>
       </c>
       <c r="E530" t="s">
         <v>2683</v>
@@ -17476,7 +17476,7 @@
         <v>2</v>
       </c>
       <c r="D532">
-        <v>473.25</v>
+        <v>472.75</v>
       </c>
       <c r="E532" t="s">
         <v>2683</v>
@@ -17544,7 +17544,7 @@
         <v>7</v>
       </c>
       <c r="D536">
-        <v>44</v>
+        <v>44.25</v>
       </c>
       <c r="E536" t="s">
         <v>2684</v>
@@ -17561,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="D537">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E537" t="s">
         <v>2683</v>
@@ -17646,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="D542">
-        <v>218.25</v>
+        <v>220</v>
       </c>
       <c r="E542" t="s">
         <v>2683</v>
@@ -17697,7 +17697,7 @@
         <v>29</v>
       </c>
       <c r="D545">
-        <v>401.75</v>
+        <v>404.75</v>
       </c>
       <c r="E545" t="s">
         <v>2683</v>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="D549">
-        <v>295.25</v>
+        <v>297.5</v>
       </c>
       <c r="E549" t="s">
         <v>2683</v>
@@ -17799,7 +17799,7 @@
         <v>2</v>
       </c>
       <c r="D551">
-        <v>269.75</v>
+        <v>269.25</v>
       </c>
       <c r="E551" t="s">
         <v>2683</v>
@@ -17833,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="D553">
-        <v>210.25</v>
+        <v>212.5</v>
       </c>
       <c r="E553" t="s">
         <v>2683</v>
@@ -17850,7 +17850,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>210.25</v>
+        <v>212.5</v>
       </c>
       <c r="E554" t="s">
         <v>2683</v>
@@ -17867,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="D555">
-        <v>210.25</v>
+        <v>212.5</v>
       </c>
       <c r="E555" t="s">
         <v>2683</v>
@@ -17918,7 +17918,7 @@
         <v>7</v>
       </c>
       <c r="D558">
-        <v>104.25</v>
+        <v>104</v>
       </c>
       <c r="E558" t="s">
         <v>2684</v>
@@ -17935,7 +17935,7 @@
         <v>1</v>
       </c>
       <c r="D559">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="E559" t="s">
         <v>2683</v>
@@ -17986,7 +17986,7 @@
         <v>3</v>
       </c>
       <c r="D562">
-        <v>89</v>
+        <v>84.75</v>
       </c>
       <c r="E562" t="s">
         <v>2684</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="D563">
-        <v>2136</v>
+        <v>2034</v>
       </c>
       <c r="E563" t="s">
         <v>2683</v>
@@ -18020,7 +18020,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>71.75</v>
+        <v>71.25</v>
       </c>
       <c r="E564" t="s">
         <v>2683</v>
@@ -18037,7 +18037,7 @@
         <v>1</v>
       </c>
       <c r="D565">
-        <v>843</v>
+        <v>840.25</v>
       </c>
       <c r="E565" t="s">
         <v>2683</v>
@@ -18054,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="D566">
-        <v>272.5</v>
+        <v>274.25</v>
       </c>
       <c r="E566" t="s">
         <v>2683</v>
@@ -18139,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="D571">
-        <v>598.25</v>
+        <v>596.5</v>
       </c>
       <c r="E571" t="s">
         <v>2683</v>
@@ -18224,7 +18224,7 @@
         <v>1</v>
       </c>
       <c r="D576">
-        <v>259</v>
+        <v>258.7831109918199</v>
       </c>
       <c r="E576" t="s">
         <v>2683</v>
@@ -18241,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="D577">
-        <v>258.2007723696458</v>
+        <v>258.1531674900576</v>
       </c>
       <c r="E577" t="s">
         <v>2683</v>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="D578">
-        <v>258.5464166259923</v>
+        <v>258.6181546595639</v>
       </c>
       <c r="E578" t="s">
         <v>2683</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <v>258.4677299281517</v>
+        <v>257.5</v>
       </c>
       <c r="E579" t="s">
         <v>2683</v>
@@ -18292,7 +18292,7 @@
         <v>1</v>
       </c>
       <c r="D580">
-        <v>258.3892352733212</v>
+        <v>259.2614840384595</v>
       </c>
       <c r="E580" t="s">
         <v>2683</v>
@@ -18377,7 +18377,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>297.0078862946522</v>
+        <v>298.7900520181011</v>
       </c>
       <c r="E585" t="s">
         <v>2683</v>
@@ -18513,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>257.7335901738254</v>
+        <v>258.2099160547156</v>
       </c>
       <c r="E593" t="s">
         <v>2683</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="D596">
-        <v>255.75</v>
+        <v>259.5</v>
       </c>
       <c r="E596" t="s">
         <v>2683</v>
@@ -18700,7 +18700,7 @@
         <v>3</v>
       </c>
       <c r="D604">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="E604" t="s">
         <v>2684</v>
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="D605">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="E605" t="s">
         <v>2683</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="D617">
-        <v>588.1941250235749</v>
+        <v>588.1938427316439</v>
       </c>
       <c r="E617" t="s">
         <v>2683</v>
@@ -18938,7 +18938,7 @@
         <v>1</v>
       </c>
       <c r="D618">
-        <v>137</v>
+        <v>139.25</v>
       </c>
       <c r="E618" t="s">
         <v>2683</v>
@@ -18955,7 +18955,7 @@
         <v>1</v>
       </c>
       <c r="D619">
-        <v>588.6454619216673</v>
+        <v>588.6442510827223</v>
       </c>
       <c r="E619" t="s">
         <v>2683</v>
@@ -19278,7 +19278,7 @@
         <v>3</v>
       </c>
       <c r="D638">
-        <v>118.3121391041703</v>
+        <v>118.2732312855221</v>
       </c>
       <c r="E638" t="s">
         <v>2684</v>
@@ -19295,7 +19295,7 @@
         <v>1</v>
       </c>
       <c r="D639">
-        <v>709.8728346250217</v>
+        <v>709.6393877131328</v>
       </c>
       <c r="E639" t="s">
         <v>2683</v>
@@ -19312,7 +19312,7 @@
         <v>7</v>
       </c>
       <c r="D640">
-        <v>118.25</v>
+        <v>119.25</v>
       </c>
       <c r="E640" t="s">
         <v>2684</v>
@@ -19329,7 +19329,7 @@
         <v>2</v>
       </c>
       <c r="D641">
-        <v>591.25</v>
+        <v>596.25</v>
       </c>
       <c r="E641" t="s">
         <v>2683</v>
@@ -19465,7 +19465,7 @@
         <v>3</v>
       </c>
       <c r="D649">
-        <v>118.1802403568247</v>
+        <v>118.1648152025543</v>
       </c>
       <c r="E649" t="s">
         <v>2684</v>
@@ -19482,7 +19482,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>709.081442140948</v>
+        <v>708.9888912153257</v>
       </c>
       <c r="E650" t="s">
         <v>2683</v>
@@ -19635,7 +19635,7 @@
         <v>2</v>
       </c>
       <c r="D659">
-        <v>313</v>
+        <v>314.75</v>
       </c>
       <c r="E659" t="s">
         <v>2683</v>
@@ -19686,7 +19686,7 @@
         <v>1</v>
       </c>
       <c r="D662">
-        <v>314.25</v>
+        <v>315.5</v>
       </c>
       <c r="E662" t="s">
         <v>2683</v>
@@ -19703,7 +19703,7 @@
         <v>1</v>
       </c>
       <c r="D663">
-        <v>327.5</v>
+        <v>329.5</v>
       </c>
       <c r="E663" t="s">
         <v>2683</v>
@@ -20349,7 +20349,7 @@
         <v>3</v>
       </c>
       <c r="D701">
-        <v>20.25</v>
+        <v>20</v>
       </c>
       <c r="E701" t="s">
         <v>2684</v>
@@ -20366,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="D702">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="E702" t="s">
         <v>2683</v>
@@ -20740,7 +20740,7 @@
         <v>4</v>
       </c>
       <c r="D724">
-        <v>740.75</v>
+        <v>740</v>
       </c>
       <c r="E724" t="s">
         <v>2684</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="D725">
-        <v>8889</v>
+        <v>8880</v>
       </c>
       <c r="E725" t="s">
         <v>2683</v>
@@ -20774,7 +20774,7 @@
         <v>4</v>
       </c>
       <c r="D726">
-        <v>755.4800905689677</v>
+        <v>748.25</v>
       </c>
       <c r="E726" t="s">
         <v>2684</v>
@@ -20791,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="D727">
-        <v>9065.761086827613</v>
+        <v>8979</v>
       </c>
       <c r="E727" t="s">
         <v>2683</v>
@@ -20808,7 +20808,7 @@
         <v>4</v>
       </c>
       <c r="D728">
-        <v>766.5</v>
+        <v>765.25</v>
       </c>
       <c r="E728" t="s">
         <v>2684</v>
@@ -20825,7 +20825,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>9198</v>
+        <v>9183</v>
       </c>
       <c r="E729" t="s">
         <v>2683</v>
@@ -20961,7 +20961,7 @@
         <v>1</v>
       </c>
       <c r="D737">
-        <v>570</v>
+        <v>570.25</v>
       </c>
       <c r="E737" t="s">
         <v>2683</v>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
       <c r="D746">
-        <v>327.5</v>
+        <v>330</v>
       </c>
       <c r="E746" t="s">
         <v>2683</v>
@@ -21216,7 +21216,7 @@
         <v>3</v>
       </c>
       <c r="D752">
-        <v>101.4159634033981</v>
+        <v>101.5</v>
       </c>
       <c r="E752" t="s">
         <v>2684</v>
@@ -21233,7 +21233,7 @@
         <v>1</v>
       </c>
       <c r="D753">
-        <v>1622.65541445437</v>
+        <v>1624</v>
       </c>
       <c r="E753" t="s">
         <v>2683</v>
@@ -21454,7 +21454,7 @@
         <v>3</v>
       </c>
       <c r="D766">
-        <v>49.27315743905276</v>
+        <v>49.29062548842526</v>
       </c>
       <c r="E766" t="s">
         <v>2684</v>
@@ -21471,7 +21471,7 @@
         <v>1</v>
       </c>
       <c r="D767">
-        <v>591.2778892686331</v>
+        <v>591.4875058611032</v>
       </c>
       <c r="E767" t="s">
         <v>2683</v>
@@ -21556,7 +21556,7 @@
         <v>3</v>
       </c>
       <c r="D772">
-        <v>48.5</v>
+        <v>49.25</v>
       </c>
       <c r="E772" t="s">
         <v>2684</v>
@@ -21573,7 +21573,7 @@
         <v>1</v>
       </c>
       <c r="D773">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E773" t="s">
         <v>2683</v>
@@ -21590,7 +21590,7 @@
         <v>3</v>
       </c>
       <c r="D774">
-        <v>48.75</v>
+        <v>49.5</v>
       </c>
       <c r="E774" t="s">
         <v>2684</v>
@@ -21607,7 +21607,7 @@
         <v>1</v>
       </c>
       <c r="D775">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="E775" t="s">
         <v>2683</v>
@@ -21743,7 +21743,7 @@
         <v>2</v>
       </c>
       <c r="D783">
-        <v>190.75</v>
+        <v>191</v>
       </c>
       <c r="E783" t="s">
         <v>2683</v>
@@ -21760,7 +21760,7 @@
         <v>1</v>
       </c>
       <c r="D784">
-        <v>165.5</v>
+        <v>167</v>
       </c>
       <c r="E784" t="s">
         <v>2683</v>
@@ -22406,7 +22406,7 @@
         <v>1</v>
       </c>
       <c r="D822">
-        <v>181.5</v>
+        <v>183.5</v>
       </c>
       <c r="E822" t="s">
         <v>2683</v>
@@ -22440,7 +22440,7 @@
         <v>1</v>
       </c>
       <c r="D824">
-        <v>385.75</v>
+        <v>389.75</v>
       </c>
       <c r="E824" t="s">
         <v>2683</v>
@@ -22797,7 +22797,7 @@
         <v>3</v>
       </c>
       <c r="D845">
-        <v>45.71402745448833</v>
+        <v>45.71402745448885</v>
       </c>
       <c r="E845" t="s">
         <v>2684</v>
@@ -22814,7 +22814,7 @@
         <v>1</v>
       </c>
       <c r="D846">
-        <v>548.56832945386</v>
+        <v>548.5683294538662</v>
       </c>
       <c r="E846" t="s">
         <v>2683</v>
@@ -22831,7 +22831,7 @@
         <v>1</v>
       </c>
       <c r="D847">
-        <v>527</v>
+        <v>527.5</v>
       </c>
       <c r="E847" t="s">
         <v>2683</v>
@@ -23103,7 +23103,7 @@
         <v>1</v>
       </c>
       <c r="D863">
-        <v>550</v>
+        <v>552.25</v>
       </c>
       <c r="E863" t="s">
         <v>2683</v>
@@ -23154,7 +23154,7 @@
         <v>3</v>
       </c>
       <c r="D866">
-        <v>101.4159660084438</v>
+        <v>101.5</v>
       </c>
       <c r="E866" t="s">
         <v>2684</v>
@@ -23171,7 +23171,7 @@
         <v>1</v>
       </c>
       <c r="D867">
-        <v>1622.655456135101</v>
+        <v>1624</v>
       </c>
       <c r="E867" t="s">
         <v>2683</v>
@@ -23188,7 +23188,7 @@
         <v>3</v>
       </c>
       <c r="D868">
-        <v>147.25</v>
+        <v>147</v>
       </c>
       <c r="E868" t="s">
         <v>2684</v>
@@ -23205,7 +23205,7 @@
         <v>1</v>
       </c>
       <c r="D869">
-        <v>883.5</v>
+        <v>882</v>
       </c>
       <c r="E869" t="s">
         <v>2683</v>
@@ -23222,7 +23222,7 @@
         <v>10</v>
       </c>
       <c r="D870">
-        <v>1030.75</v>
+        <v>1027.25</v>
       </c>
       <c r="E870" t="s">
         <v>2683</v>
@@ -23341,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="D877">
-        <v>614.25</v>
+        <v>613.25</v>
       </c>
       <c r="E877" t="s">
         <v>2683</v>
@@ -23426,7 +23426,7 @@
         <v>3</v>
       </c>
       <c r="D882">
-        <v>49.50130187577989</v>
+        <v>49.50012524275866</v>
       </c>
       <c r="E882" t="s">
         <v>2684</v>
@@ -23443,7 +23443,7 @@
         <v>1</v>
       </c>
       <c r="D883">
-        <v>594.0156225093588</v>
+        <v>594.001502913104</v>
       </c>
       <c r="E883" t="s">
         <v>2683</v>
@@ -23579,7 +23579,7 @@
         <v>1</v>
       </c>
       <c r="D891">
-        <v>848.5</v>
+        <v>849</v>
       </c>
       <c r="E891" t="s">
         <v>2683</v>
@@ -23596,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="D892">
-        <v>591.75</v>
+        <v>592.25</v>
       </c>
       <c r="E892" t="s">
         <v>2683</v>
@@ -23630,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="D894">
-        <v>442</v>
+        <v>442.5</v>
       </c>
       <c r="E894" t="s">
         <v>2683</v>
@@ -23800,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="D904">
-        <v>489.031038923121</v>
+        <v>490.8935076140829</v>
       </c>
       <c r="E904" t="s">
         <v>2683</v>
@@ -24225,7 +24225,7 @@
         <v>2</v>
       </c>
       <c r="D929">
-        <v>165.6521783564466</v>
+        <v>166.4950850326779</v>
       </c>
       <c r="E929" t="s">
         <v>2683</v>
@@ -24327,7 +24327,7 @@
         <v>2</v>
       </c>
       <c r="D935">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E935" t="s">
         <v>2683</v>
@@ -24344,7 +24344,7 @@
         <v>1</v>
       </c>
       <c r="D936">
-        <v>487.1320954140548</v>
+        <v>488.9873320020416</v>
       </c>
       <c r="E936" t="s">
         <v>2683</v>
@@ -25058,7 +25058,7 @@
         <v>1</v>
       </c>
       <c r="D978">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="E978" t="s">
         <v>2683</v>
@@ -25415,7 +25415,7 @@
         <v>2</v>
       </c>
       <c r="D999">
-        <v>387.1276791796842</v>
+        <v>387.1289491786386</v>
       </c>
       <c r="E999" t="s">
         <v>2683</v>
@@ -25449,7 +25449,7 @@
         <v>2</v>
       </c>
       <c r="D1001">
-        <v>711.3151610677547</v>
+        <v>711.3346839002877</v>
       </c>
       <c r="E1001" t="s">
         <v>2683</v>
@@ -25772,7 +25772,7 @@
         <v>1</v>
       </c>
       <c r="D1020">
-        <v>323.7944596852133</v>
+        <v>323.7369347470745</v>
       </c>
       <c r="E1020" t="s">
         <v>2683</v>
@@ -25942,7 +25942,7 @@
         <v>1</v>
       </c>
       <c r="D1030">
-        <v>350.67744446252</v>
+        <v>352.7071630034306</v>
       </c>
       <c r="E1030" t="s">
         <v>2683</v>
@@ -25959,7 +25959,7 @@
         <v>1</v>
       </c>
       <c r="D1031">
-        <v>360</v>
+        <v>362.25</v>
       </c>
       <c r="E1031" t="s">
         <v>2683</v>
@@ -26010,7 +26010,7 @@
         <v>1</v>
       </c>
       <c r="D1034">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1034" t="s">
         <v>2683</v>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="D1042">
-        <v>610</v>
+        <v>612.25</v>
       </c>
       <c r="E1042" t="s">
         <v>2683</v>
@@ -26214,7 +26214,7 @@
         <v>2</v>
       </c>
       <c r="D1046">
-        <v>176.5</v>
+        <v>180.25</v>
       </c>
       <c r="E1046" t="s">
         <v>2683</v>
@@ -26656,7 +26656,7 @@
         <v>1</v>
       </c>
       <c r="D1072">
-        <v>622</v>
+        <v>622.5</v>
       </c>
       <c r="E1072" t="s">
         <v>2683</v>
@@ -27081,7 +27081,7 @@
         <v>11</v>
       </c>
       <c r="D1097">
-        <v>54.75</v>
+        <v>55</v>
       </c>
       <c r="E1097" t="s">
         <v>2684</v>
@@ -27098,7 +27098,7 @@
         <v>15</v>
       </c>
       <c r="D1098">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E1098" t="s">
         <v>2683</v>
@@ -27115,7 +27115,7 @@
         <v>16</v>
       </c>
       <c r="D1099">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="E1099" t="s">
         <v>2683</v>
@@ -27132,7 +27132,7 @@
         <v>1</v>
       </c>
       <c r="D1100">
-        <v>2628</v>
+        <v>2640</v>
       </c>
       <c r="E1100" t="s">
         <v>2683</v>
@@ -27217,7 +27217,7 @@
         <v>11</v>
       </c>
       <c r="D1105">
-        <v>57.75</v>
+        <v>58</v>
       </c>
       <c r="E1105" t="s">
         <v>2684</v>
@@ -27234,7 +27234,7 @@
         <v>15</v>
       </c>
       <c r="D1106">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E1106" t="s">
         <v>2683</v>
@@ -27251,7 +27251,7 @@
         <v>16</v>
       </c>
       <c r="D1107">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="E1107" t="s">
         <v>2683</v>
@@ -27268,7 +27268,7 @@
         <v>1</v>
       </c>
       <c r="D1108">
-        <v>2772</v>
+        <v>2784</v>
       </c>
       <c r="E1108" t="s">
         <v>2683</v>
@@ -27370,7 +27370,7 @@
         <v>4</v>
       </c>
       <c r="D1114">
-        <v>298.25</v>
+        <v>297.5</v>
       </c>
       <c r="E1114" t="s">
         <v>2684</v>
@@ -27387,7 +27387,7 @@
         <v>1</v>
       </c>
       <c r="D1115">
-        <v>3579</v>
+        <v>3570</v>
       </c>
       <c r="E1115" t="s">
         <v>2683</v>
@@ -27404,7 +27404,7 @@
         <v>4</v>
       </c>
       <c r="D1116">
-        <v>370.75</v>
+        <v>370.25</v>
       </c>
       <c r="E1116" t="s">
         <v>2684</v>
@@ -27421,7 +27421,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>4449</v>
+        <v>4443</v>
       </c>
       <c r="E1117" t="s">
         <v>2683</v>
@@ -27506,7 +27506,7 @@
         <v>2</v>
       </c>
       <c r="D1122">
-        <v>269.75</v>
+        <v>269.25</v>
       </c>
       <c r="E1122" t="s">
         <v>2683</v>
@@ -27523,7 +27523,7 @@
         <v>2</v>
       </c>
       <c r="D1123">
-        <v>269.75</v>
+        <v>269.25</v>
       </c>
       <c r="E1123" t="s">
         <v>2683</v>
@@ -27642,7 +27642,7 @@
         <v>3</v>
       </c>
       <c r="D1130">
-        <v>71.75</v>
+        <v>71.5</v>
       </c>
       <c r="E1130" t="s">
         <v>2684</v>
@@ -27659,7 +27659,7 @@
         <v>1</v>
       </c>
       <c r="D1131">
-        <v>430.5</v>
+        <v>429</v>
       </c>
       <c r="E1131" t="s">
         <v>2683</v>
@@ -28203,7 +28203,7 @@
         <v>2</v>
       </c>
       <c r="D1163">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E1163" t="s">
         <v>2683</v>
@@ -28220,7 +28220,7 @@
         <v>10</v>
       </c>
       <c r="D1164">
-        <v>992.5</v>
+        <v>991.25</v>
       </c>
       <c r="E1164" t="s">
         <v>2683</v>
@@ -28458,7 +28458,7 @@
         <v>2</v>
       </c>
       <c r="D1178">
-        <v>168</v>
+        <v>169.5</v>
       </c>
       <c r="E1178" t="s">
         <v>2683</v>
@@ -28475,7 +28475,7 @@
         <v>1</v>
       </c>
       <c r="D1179">
-        <v>475.25</v>
+        <v>479.5</v>
       </c>
       <c r="E1179" t="s">
         <v>2683</v>
@@ -28662,7 +28662,7 @@
         <v>10</v>
       </c>
       <c r="D1190">
-        <v>95.5</v>
+        <v>95.75</v>
       </c>
       <c r="E1190" t="s">
         <v>2684</v>
@@ -28679,7 +28679,7 @@
         <v>2</v>
       </c>
       <c r="D1191">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E1191" t="s">
         <v>2683</v>
@@ -29019,7 +29019,7 @@
         <v>7</v>
       </c>
       <c r="D1211">
-        <v>49.75</v>
+        <v>50.25</v>
       </c>
       <c r="E1211" t="s">
         <v>2684</v>
@@ -29036,7 +29036,7 @@
         <v>2</v>
       </c>
       <c r="D1212">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="E1212" t="s">
         <v>2683</v>
@@ -29053,7 +29053,7 @@
         <v>7</v>
       </c>
       <c r="D1213">
-        <v>48.75</v>
+        <v>48.25</v>
       </c>
       <c r="E1213" t="s">
         <v>2684</v>
@@ -29070,7 +29070,7 @@
         <v>2</v>
       </c>
       <c r="D1214">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E1214" t="s">
         <v>2683</v>
@@ -29495,7 +29495,7 @@
         <v>1</v>
       </c>
       <c r="D1239">
-        <v>402.5</v>
+        <v>407.25</v>
       </c>
       <c r="E1239" t="s">
         <v>2683</v>
@@ -29818,7 +29818,7 @@
         <v>3</v>
       </c>
       <c r="D1258">
-        <v>84</v>
+        <v>84.25</v>
       </c>
       <c r="E1258" t="s">
         <v>2684</v>
@@ -29835,7 +29835,7 @@
         <v>1</v>
       </c>
       <c r="D1259">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="E1259" t="s">
         <v>2683</v>
@@ -30090,7 +30090,7 @@
         <v>3</v>
       </c>
       <c r="D1274">
-        <v>136.0119552973524</v>
+        <v>137.0427579663475</v>
       </c>
       <c r="E1274" t="s">
         <v>2684</v>
@@ -30107,7 +30107,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>816.0717317841147</v>
+        <v>822.2565477980852</v>
       </c>
       <c r="E1275" t="s">
         <v>2683</v>
@@ -30838,7 +30838,7 @@
         <v>2</v>
       </c>
       <c r="D1318">
-        <v>292.25</v>
+        <v>294</v>
       </c>
       <c r="E1318" t="s">
         <v>2683</v>
@@ -30940,7 +30940,7 @@
         <v>1</v>
       </c>
       <c r="D1324">
-        <v>176.25</v>
+        <v>177.75</v>
       </c>
       <c r="E1324" t="s">
         <v>2683</v>
@@ -30957,7 +30957,7 @@
         <v>1</v>
       </c>
       <c r="D1325">
-        <v>144</v>
+        <v>145.25</v>
       </c>
       <c r="E1325" t="s">
         <v>2683</v>
@@ -30974,7 +30974,7 @@
         <v>1</v>
       </c>
       <c r="D1326">
-        <v>105.25</v>
+        <v>106.25</v>
       </c>
       <c r="E1326" t="s">
         <v>2683</v>
@@ -30991,7 +30991,7 @@
         <v>1</v>
       </c>
       <c r="D1327">
-        <v>104.75</v>
+        <v>105.75</v>
       </c>
       <c r="E1327" t="s">
         <v>2683</v>
@@ -31025,7 +31025,7 @@
         <v>1</v>
       </c>
       <c r="D1329">
-        <v>354.858771634283</v>
+        <v>357.7712921455819</v>
       </c>
       <c r="E1329" t="s">
         <v>2683</v>
@@ -31297,7 +31297,7 @@
         <v>1</v>
       </c>
       <c r="D1345">
-        <v>718.75</v>
+        <v>726.5</v>
       </c>
       <c r="E1345" t="s">
         <v>2683</v>
@@ -31484,7 +31484,7 @@
         <v>1</v>
       </c>
       <c r="D1356">
-        <v>388</v>
+        <v>390.5</v>
       </c>
       <c r="E1356" t="s">
         <v>2683</v>
@@ -32368,7 +32368,7 @@
         <v>11</v>
       </c>
       <c r="D1408">
-        <v>24.25</v>
+        <v>24.5</v>
       </c>
       <c r="E1408" t="s">
         <v>2684</v>
@@ -32385,7 +32385,7 @@
         <v>15</v>
       </c>
       <c r="D1409">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E1409" t="s">
         <v>2683</v>
@@ -32402,7 +32402,7 @@
         <v>16</v>
       </c>
       <c r="D1410">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E1410" t="s">
         <v>2683</v>
@@ -32419,7 +32419,7 @@
         <v>1</v>
       </c>
       <c r="D1411">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="E1411" t="s">
         <v>2683</v>
@@ -32623,7 +32623,7 @@
         <v>25</v>
       </c>
       <c r="D1423">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E1423" t="s">
         <v>2684</v>
@@ -32640,7 +32640,7 @@
         <v>2</v>
       </c>
       <c r="D1424">
-        <v>921</v>
+        <v>920.25</v>
       </c>
       <c r="E1424" t="s">
         <v>2683</v>
@@ -32912,7 +32912,7 @@
         <v>7</v>
       </c>
       <c r="D1440">
-        <v>178.75</v>
+        <v>179.75</v>
       </c>
       <c r="E1440" t="s">
         <v>2684</v>
@@ -32929,7 +32929,7 @@
         <v>2</v>
       </c>
       <c r="D1441">
-        <v>893.75</v>
+        <v>898.75</v>
       </c>
       <c r="E1441" t="s">
         <v>2683</v>
@@ -32963,7 +32963,7 @@
         <v>2</v>
       </c>
       <c r="D1443">
-        <v>260.25</v>
+        <v>262</v>
       </c>
       <c r="E1443" t="s">
         <v>2683</v>
@@ -33320,7 +33320,7 @@
         <v>1</v>
       </c>
       <c r="D1464">
-        <v>562.25</v>
+        <v>562.5</v>
       </c>
       <c r="E1464" t="s">
         <v>2683</v>
@@ -33354,7 +33354,7 @@
         <v>2</v>
       </c>
       <c r="D1466">
-        <v>140.3209710040867</v>
+        <v>140.3208005763771</v>
       </c>
       <c r="E1466" t="s">
         <v>2683</v>
@@ -33439,7 +33439,7 @@
         <v>3</v>
       </c>
       <c r="D1471">
-        <v>46.25</v>
+        <v>46.5</v>
       </c>
       <c r="E1471" t="s">
         <v>2684</v>
@@ -33456,7 +33456,7 @@
         <v>1</v>
       </c>
       <c r="D1472">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="E1472" t="s">
         <v>2683</v>
@@ -33490,7 +33490,7 @@
         <v>3</v>
       </c>
       <c r="D1474">
-        <v>17.25</v>
+        <v>17.5</v>
       </c>
       <c r="E1474" t="s">
         <v>2684</v>
@@ -33507,7 +33507,7 @@
         <v>1</v>
       </c>
       <c r="D1475">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="E1475" t="s">
         <v>2683</v>
@@ -33796,7 +33796,7 @@
         <v>1</v>
       </c>
       <c r="D1492">
-        <v>214.3834535662034</v>
+        <v>216.0600320941866</v>
       </c>
       <c r="E1492" t="s">
         <v>2683</v>
@@ -34476,7 +34476,7 @@
         <v>1</v>
       </c>
       <c r="D1532">
-        <v>388.7546851704299</v>
+        <v>391.8202016005942</v>
       </c>
       <c r="E1532" t="s">
         <v>2683</v>
@@ -34493,7 +34493,7 @@
         <v>1</v>
       </c>
       <c r="D1533">
-        <v>388.7366232544549</v>
+        <v>391.802781532888</v>
       </c>
       <c r="E1533" t="s">
         <v>2683</v>
@@ -34850,7 +34850,7 @@
         <v>2</v>
       </c>
       <c r="D1554">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E1554" t="s">
         <v>2683</v>
@@ -34867,7 +34867,7 @@
         <v>2</v>
       </c>
       <c r="D1555">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E1555" t="s">
         <v>2683</v>
@@ -34884,7 +34884,7 @@
         <v>3</v>
       </c>
       <c r="D1556">
-        <v>131.8840977320241</v>
+        <v>132.8005904385801</v>
       </c>
       <c r="E1556" t="s">
         <v>2684</v>
@@ -34901,7 +34901,7 @@
         <v>1</v>
       </c>
       <c r="D1557">
-        <v>1582.60917278429</v>
+        <v>1593.607085262962</v>
       </c>
       <c r="E1557" t="s">
         <v>2683</v>
@@ -35003,7 +35003,7 @@
         <v>3</v>
       </c>
       <c r="D1563">
-        <v>131.9087113510176</v>
+        <v>132.8124476525599</v>
       </c>
       <c r="E1563" t="s">
         <v>2684</v>
@@ -35020,7 +35020,7 @@
         <v>1</v>
       </c>
       <c r="D1564">
-        <v>1582.904536212211</v>
+        <v>1593.749371830719</v>
       </c>
       <c r="E1564" t="s">
         <v>2683</v>
@@ -35139,7 +35139,7 @@
         <v>1</v>
       </c>
       <c r="D1571">
-        <v>148.2120409281982</v>
+        <v>149.3640120082463</v>
       </c>
       <c r="E1571" t="s">
         <v>2683</v>
@@ -35173,7 +35173,7 @@
         <v>1</v>
       </c>
       <c r="D1573">
-        <v>325.5</v>
+        <v>328.25</v>
       </c>
       <c r="E1573" t="s">
         <v>2683</v>
@@ -35224,7 +35224,7 @@
         <v>3</v>
       </c>
       <c r="D1576">
-        <v>131.25</v>
+        <v>133.25</v>
       </c>
       <c r="E1576" t="s">
         <v>2684</v>
@@ -35241,7 +35241,7 @@
         <v>1</v>
       </c>
       <c r="D1577">
-        <v>1575</v>
+        <v>1599</v>
       </c>
       <c r="E1577" t="s">
         <v>2683</v>
@@ -35258,7 +35258,7 @@
         <v>2</v>
       </c>
       <c r="D1578">
-        <v>169.75</v>
+        <v>171</v>
       </c>
       <c r="E1578" t="s">
         <v>2683</v>
@@ -35275,7 +35275,7 @@
         <v>2</v>
       </c>
       <c r="D1579">
-        <v>349.75</v>
+        <v>353</v>
       </c>
       <c r="E1579" t="s">
         <v>2683</v>
@@ -35292,7 +35292,7 @@
         <v>1</v>
       </c>
       <c r="D1580">
-        <v>134.5</v>
+        <v>135.5</v>
       </c>
       <c r="E1580" t="s">
         <v>2683</v>
@@ -35445,7 +35445,7 @@
         <v>1</v>
       </c>
       <c r="D1589">
-        <v>281.5</v>
+        <v>286</v>
       </c>
       <c r="E1589" t="s">
         <v>2683</v>
@@ -35496,7 +35496,7 @@
         <v>1</v>
       </c>
       <c r="D1592">
-        <v>167.819123467954</v>
+        <v>169.1163884930393</v>
       </c>
       <c r="E1592" t="s">
         <v>2683</v>
@@ -35513,7 +35513,7 @@
         <v>1</v>
       </c>
       <c r="D1593">
-        <v>168.2530860708857</v>
+        <v>169.5614015134419</v>
       </c>
       <c r="E1593" t="s">
         <v>2683</v>
@@ -35530,7 +35530,7 @@
         <v>1</v>
       </c>
       <c r="D1594">
-        <v>168.2539773659486</v>
+        <v>169.5617012823882</v>
       </c>
       <c r="E1594" t="s">
         <v>2683</v>
@@ -35683,7 +35683,7 @@
         <v>1</v>
       </c>
       <c r="D1603">
-        <v>249</v>
+        <v>250.75</v>
       </c>
       <c r="E1603" t="s">
         <v>2683</v>
@@ -35700,7 +35700,7 @@
         <v>1</v>
       </c>
       <c r="D1604">
-        <v>250.75</v>
+        <v>254.75</v>
       </c>
       <c r="E1604" t="s">
         <v>2683</v>
@@ -35887,7 +35887,7 @@
         <v>2</v>
       </c>
       <c r="D1615">
-        <v>144.5</v>
+        <v>147</v>
       </c>
       <c r="E1615" t="s">
         <v>2684</v>
@@ -35904,7 +35904,7 @@
         <v>1</v>
       </c>
       <c r="D1616">
-        <v>1734</v>
+        <v>1764</v>
       </c>
       <c r="E1616" t="s">
         <v>2683</v>
@@ -36278,7 +36278,7 @@
         <v>1</v>
       </c>
       <c r="D1638">
-        <v>148.2595081558492</v>
+        <v>149.3743046686532</v>
       </c>
       <c r="E1638" t="s">
         <v>2683</v>
@@ -36414,7 +36414,7 @@
         <v>4</v>
       </c>
       <c r="D1646">
-        <v>133.7274983870877</v>
+        <v>133.7119820400808</v>
       </c>
       <c r="E1646" t="s">
         <v>2684</v>
@@ -36431,7 +36431,7 @@
         <v>1</v>
       </c>
       <c r="D1647">
-        <v>1604.729980645052</v>
+        <v>1604.54378448097</v>
       </c>
       <c r="E1647" t="s">
         <v>2683</v>
@@ -37213,7 +37213,7 @@
         <v>2</v>
       </c>
       <c r="D1693">
-        <v>178.25</v>
+        <v>180.5</v>
       </c>
       <c r="E1693" t="s">
         <v>2683</v>
@@ -37468,7 +37468,7 @@
         <v>3</v>
       </c>
       <c r="D1708">
-        <v>60.15169859095736</v>
+        <v>60.15171918763465</v>
       </c>
       <c r="E1708" t="s">
         <v>2684</v>
@@ -37485,7 +37485,7 @@
         <v>1</v>
       </c>
       <c r="D1709">
-        <v>1443.640766182977</v>
+        <v>1443.641260503231</v>
       </c>
       <c r="E1709" t="s">
         <v>2683</v>
@@ -37502,7 +37502,7 @@
         <v>3</v>
       </c>
       <c r="D1710">
-        <v>60.15039281916024</v>
+        <v>60.15040011514435</v>
       </c>
       <c r="E1710" t="s">
         <v>2684</v>
@@ -37519,7 +37519,7 @@
         <v>1</v>
       </c>
       <c r="D1711">
-        <v>1443.609427659846</v>
+        <v>1443.609602763464</v>
       </c>
       <c r="E1711" t="s">
         <v>2683</v>
@@ -38284,7 +38284,7 @@
         <v>3</v>
       </c>
       <c r="D1756">
-        <v>17.30435507518469</v>
+        <v>17.39308917741562</v>
       </c>
       <c r="E1756" t="s">
         <v>2684</v>
@@ -38301,7 +38301,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>207.6522609022163</v>
+        <v>208.7170701289874</v>
       </c>
       <c r="E1757" t="s">
         <v>2683</v>
@@ -39440,7 +39440,7 @@
         <v>2</v>
       </c>
       <c r="D1824">
-        <v>314.25</v>
+        <v>316.5</v>
       </c>
       <c r="E1824" t="s">
         <v>2683</v>
@@ -39457,7 +39457,7 @@
         <v>2</v>
       </c>
       <c r="D1825">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1825" t="s">
         <v>2683</v>
@@ -41531,7 +41531,7 @@
         <v>2</v>
       </c>
       <c r="D1947">
-        <v>193.25</v>
+        <v>194.5</v>
       </c>
       <c r="E1947" t="s">
         <v>2683</v>
@@ -41565,7 +41565,7 @@
         <v>2</v>
       </c>
       <c r="D1949">
-        <v>187.75</v>
+        <v>189</v>
       </c>
       <c r="E1949" t="s">
         <v>2683</v>
@@ -41990,7 +41990,7 @@
         <v>3</v>
       </c>
       <c r="D1974">
-        <v>82.86159114498787</v>
+        <v>82.88874154615415</v>
       </c>
       <c r="E1974" t="s">
         <v>2684</v>
@@ -42007,7 +42007,7 @@
         <v>1</v>
       </c>
       <c r="D1975">
-        <v>1657.231822899757</v>
+        <v>1657.774830923083</v>
       </c>
       <c r="E1975" t="s">
         <v>2683</v>
@@ -43724,7 +43724,7 @@
         <v>1</v>
       </c>
       <c r="D2076">
-        <v>328.5</v>
+        <v>335.75</v>
       </c>
       <c r="E2076" t="s">
         <v>2683</v>
@@ -43996,7 +43996,7 @@
         <v>29</v>
       </c>
       <c r="D2092">
-        <v>300.75</v>
+        <v>302.75</v>
       </c>
       <c r="E2092" t="s">
         <v>2683</v>
@@ -44115,7 +44115,7 @@
         <v>1</v>
       </c>
       <c r="D2099">
-        <v>783.5</v>
+        <v>781.5</v>
       </c>
       <c r="E2099" t="s">
         <v>2683</v>
@@ -44149,7 +44149,7 @@
         <v>29</v>
       </c>
       <c r="D2101">
-        <v>276.25</v>
+        <v>278.75</v>
       </c>
       <c r="E2101" t="s">
         <v>2683</v>
@@ -44166,7 +44166,7 @@
         <v>29</v>
       </c>
       <c r="D2102">
-        <v>317.5</v>
+        <v>320</v>
       </c>
       <c r="E2102" t="s">
         <v>2683</v>
@@ -44319,7 +44319,7 @@
         <v>1</v>
       </c>
       <c r="D2111">
-        <v>712.75</v>
+        <v>712.25</v>
       </c>
       <c r="E2111" t="s">
         <v>2683</v>
@@ -44727,7 +44727,7 @@
         <v>1</v>
       </c>
       <c r="D2135">
-        <v>445.5</v>
+        <v>450.25</v>
       </c>
       <c r="E2135" t="s">
         <v>2683</v>
@@ -45118,7 +45118,7 @@
         <v>11</v>
       </c>
       <c r="D2158">
-        <v>60.09782905376246</v>
+        <v>60.24248125616595</v>
       </c>
       <c r="E2158" t="s">
         <v>2684</v>
@@ -45135,7 +45135,7 @@
         <v>15</v>
       </c>
       <c r="D2159">
-        <v>901.4674358064369</v>
+        <v>903.6372188424891</v>
       </c>
       <c r="E2159" t="s">
         <v>2683</v>
@@ -45152,7 +45152,7 @@
         <v>17</v>
       </c>
       <c r="D2160">
-        <v>1802.934871612874</v>
+        <v>1807.274437684978</v>
       </c>
       <c r="E2160" t="s">
         <v>2683</v>
@@ -45169,7 +45169,7 @@
         <v>1</v>
       </c>
       <c r="D2161">
-        <v>2884.695794580598</v>
+        <v>2891.639100295965</v>
       </c>
       <c r="E2161" t="s">
         <v>2683</v>
@@ -45594,7 +45594,7 @@
         <v>3</v>
       </c>
       <c r="D2186">
-        <v>371</v>
+        <v>371.25</v>
       </c>
       <c r="E2186" t="s">
         <v>2684</v>
@@ -45611,7 +45611,7 @@
         <v>1</v>
       </c>
       <c r="D2187">
-        <v>4452</v>
+        <v>4455</v>
       </c>
       <c r="E2187" t="s">
         <v>2683</v>
@@ -45628,7 +45628,7 @@
         <v>3</v>
       </c>
       <c r="D2188">
-        <v>325.2247458155819</v>
+        <v>325.2324740973289</v>
       </c>
       <c r="E2188" t="s">
         <v>2684</v>
@@ -45645,7 +45645,7 @@
         <v>1</v>
       </c>
       <c r="D2189">
-        <v>3902.696949786983</v>
+        <v>3902.789689167947</v>
       </c>
       <c r="E2189" t="s">
         <v>2683</v>
@@ -45662,7 +45662,7 @@
         <v>3</v>
       </c>
       <c r="D2190">
-        <v>325.2079322256429</v>
+        <v>325.2142595458291</v>
       </c>
       <c r="E2190" t="s">
         <v>2684</v>
@@ -45679,7 +45679,7 @@
         <v>1</v>
       </c>
       <c r="D2191">
-        <v>3902.495186707714</v>
+        <v>3902.571114549949</v>
       </c>
       <c r="E2191" t="s">
         <v>2683</v>
@@ -45696,7 +45696,7 @@
         <v>3</v>
       </c>
       <c r="D2192">
-        <v>325.17455103165</v>
+        <v>325.1884450125305</v>
       </c>
       <c r="E2192" t="s">
         <v>2684</v>
@@ -45713,7 +45713,7 @@
         <v>1</v>
       </c>
       <c r="D2193">
-        <v>3902.094612379799</v>
+        <v>3902.261340150365</v>
       </c>
       <c r="E2193" t="s">
         <v>2683</v>
@@ -45764,7 +45764,7 @@
         <v>3</v>
       </c>
       <c r="D2196">
-        <v>324.8319693396846</v>
+        <v>324.8319704270987</v>
       </c>
       <c r="E2196" t="s">
         <v>2684</v>
@@ -45781,7 +45781,7 @@
         <v>1</v>
       </c>
       <c r="D2197">
-        <v>3897.983632076216</v>
+        <v>3897.983645125184</v>
       </c>
       <c r="E2197" t="s">
         <v>2683</v>
@@ -45832,7 +45832,7 @@
         <v>3</v>
       </c>
       <c r="D2200">
-        <v>556.6748097398577</v>
+        <v>556.7478330145836</v>
       </c>
       <c r="E2200" t="s">
         <v>2684</v>
@@ -45849,7 +45849,7 @@
         <v>1</v>
       </c>
       <c r="D2201">
-        <v>6680.097716878292</v>
+        <v>6680.973996175004</v>
       </c>
       <c r="E2201" t="s">
         <v>2683</v>
@@ -46138,7 +46138,7 @@
         <v>29</v>
       </c>
       <c r="D2218">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2218" t="s">
         <v>2683</v>
@@ -46155,7 +46155,7 @@
         <v>2</v>
       </c>
       <c r="D2219">
-        <v>140.3372135116929</v>
+        <v>140.3344922429817</v>
       </c>
       <c r="E2219" t="s">
         <v>2683</v>
@@ -46427,7 +46427,7 @@
         <v>137</v>
       </c>
       <c r="D2235">
-        <v>156.2453616684642</v>
+        <v>158.1035987061328</v>
       </c>
       <c r="E2235" t="s">
         <v>2683</v>
@@ -47141,7 +47141,7 @@
         <v>2</v>
       </c>
       <c r="D2277">
-        <v>158.7091708266706</v>
+        <v>159.6277783725114</v>
       </c>
       <c r="E2277" t="s">
         <v>2683</v>
@@ -47158,7 +47158,7 @@
         <v>2</v>
       </c>
       <c r="D2278">
-        <v>158.8822176741855</v>
+        <v>159.8018268139423</v>
       </c>
       <c r="E2278" t="s">
         <v>2683</v>
@@ -47175,7 +47175,7 @@
         <v>2</v>
       </c>
       <c r="D2279">
-        <v>158.8333851226941</v>
+        <v>159.7527116199921</v>
       </c>
       <c r="E2279" t="s">
         <v>2683</v>
@@ -47209,7 +47209,7 @@
         <v>2</v>
       </c>
       <c r="D2281">
-        <v>159.048069806585</v>
+        <v>159.9686388972981</v>
       </c>
       <c r="E2281" t="s">
         <v>2683</v>
@@ -47226,7 +47226,7 @@
         <v>2</v>
       </c>
       <c r="D2282">
-        <v>158.3202254140891</v>
+        <v>159.2365817466631</v>
       </c>
       <c r="E2282" t="s">
         <v>2683</v>
@@ -47328,7 +47328,7 @@
         <v>1</v>
       </c>
       <c r="D2288">
-        <v>357.5</v>
+        <v>358.25</v>
       </c>
       <c r="E2288" t="s">
         <v>2683</v>
@@ -47855,7 +47855,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E2319" t="s">
         <v>2683</v>
@@ -47872,7 +47872,7 @@
         <v>1</v>
       </c>
       <c r="D2320">
-        <v>876</v>
+        <v>875.75</v>
       </c>
       <c r="E2320" t="s">
         <v>2683</v>
@@ -48433,7 +48433,7 @@
         <v>3</v>
       </c>
       <c r="D2353">
-        <v>96.25</v>
+        <v>96</v>
       </c>
       <c r="E2353" t="s">
         <v>2684</v>
@@ -48450,7 +48450,7 @@
         <v>1</v>
       </c>
       <c r="D2354">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2354" t="s">
         <v>2683</v>
@@ -48569,7 +48569,7 @@
         <v>3</v>
       </c>
       <c r="D2361">
-        <v>122</v>
+        <v>121.75</v>
       </c>
       <c r="E2361" t="s">
         <v>2684</v>
@@ -48586,7 +48586,7 @@
         <v>1</v>
       </c>
       <c r="D2362">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E2362" t="s">
         <v>2683</v>
@@ -48603,7 +48603,7 @@
         <v>3</v>
       </c>
       <c r="D2363">
-        <v>197.6400738549082</v>
+        <v>197.4513404718712</v>
       </c>
       <c r="E2363" t="s">
         <v>2684</v>
@@ -48620,7 +48620,7 @@
         <v>1</v>
       </c>
       <c r="D2364">
-        <v>790.5602954196327</v>
+        <v>789.8053618874847</v>
       </c>
       <c r="E2364" t="s">
         <v>2683</v>
@@ -48671,7 +48671,7 @@
         <v>3</v>
       </c>
       <c r="D2367">
-        <v>198.1782442958328</v>
+        <v>197.7406974805907</v>
       </c>
       <c r="E2367" t="s">
         <v>2684</v>
@@ -48688,7 +48688,7 @@
         <v>1</v>
       </c>
       <c r="D2368">
-        <v>792.7129771833311</v>
+        <v>790.962789922363</v>
       </c>
       <c r="E2368" t="s">
         <v>2683</v>
@@ -48977,7 +48977,7 @@
         <v>1</v>
       </c>
       <c r="D2385">
-        <v>618.0661420789683</v>
+        <v>618.0581918245456</v>
       </c>
       <c r="E2385" t="s">
         <v>2683</v>
@@ -49385,7 +49385,7 @@
         <v>3</v>
       </c>
       <c r="D2409">
-        <v>179.5</v>
+        <v>178.5</v>
       </c>
       <c r="E2409" t="s">
         <v>2684</v>
@@ -49402,7 +49402,7 @@
         <v>1</v>
       </c>
       <c r="D2410">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E2410" t="s">
         <v>2683</v>
@@ -50150,7 +50150,7 @@
         <v>3</v>
       </c>
       <c r="D2454">
-        <v>190.0506895471322</v>
+        <v>189.9819287126098</v>
       </c>
       <c r="E2454" t="s">
         <v>2684</v>
@@ -50167,7 +50167,7 @@
         <v>1</v>
       </c>
       <c r="D2455">
-        <v>2280.608274565587</v>
+        <v>2279.783144551317</v>
       </c>
       <c r="E2455" t="s">
         <v>2683</v>
@@ -50218,7 +50218,7 @@
         <v>3</v>
       </c>
       <c r="D2458">
-        <v>188.688360683052</v>
+        <v>188.6661641970658</v>
       </c>
       <c r="E2458" t="s">
         <v>2684</v>
@@ -50235,7 +50235,7 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>2264.260328196624</v>
+        <v>2263.99397036479</v>
       </c>
       <c r="E2459" t="s">
         <v>2683</v>
@@ -50320,7 +50320,7 @@
         <v>3</v>
       </c>
       <c r="D2464">
-        <v>189.8863452512953</v>
+        <v>189.8051153877561</v>
       </c>
       <c r="E2464" t="s">
         <v>2684</v>
@@ -50337,7 +50337,7 @@
         <v>1</v>
       </c>
       <c r="D2465">
-        <v>2278.636143015543</v>
+        <v>2277.661384653073</v>
       </c>
       <c r="E2465" t="s">
         <v>2683</v>
@@ -50422,7 +50422,7 @@
         <v>1</v>
       </c>
       <c r="D2470">
-        <v>186</v>
+        <v>187.75</v>
       </c>
       <c r="E2470" t="s">
         <v>2683</v>
@@ -51187,7 +51187,7 @@
         <v>29</v>
       </c>
       <c r="D2515">
-        <v>356.75</v>
+        <v>360</v>
       </c>
       <c r="E2515" t="s">
         <v>2683</v>
@@ -51578,7 +51578,7 @@
         <v>1</v>
       </c>
       <c r="D2538">
-        <v>148.4030500097569</v>
+        <v>149.5183766391067</v>
       </c>
       <c r="E2538" t="s">
         <v>2683</v>
@@ -51629,7 +51629,7 @@
         <v>7</v>
       </c>
       <c r="D2541">
-        <v>146.5</v>
+        <v>147.5</v>
       </c>
       <c r="E2541" t="s">
         <v>2684</v>
@@ -51646,7 +51646,7 @@
         <v>1</v>
       </c>
       <c r="D2542">
-        <v>732.5</v>
+        <v>737.5</v>
       </c>
       <c r="E2542" t="s">
         <v>2683</v>
@@ -51663,7 +51663,7 @@
         <v>29</v>
       </c>
       <c r="D2543">
-        <v>288.25</v>
+        <v>290.5</v>
       </c>
       <c r="E2543" t="s">
         <v>2683</v>
@@ -51884,7 +51884,7 @@
         <v>5</v>
       </c>
       <c r="D2556">
-        <v>156.697865021121</v>
+        <v>158.561483712879</v>
       </c>
       <c r="E2556" t="s">
         <v>2683</v>
@@ -51901,7 +51901,7 @@
         <v>1</v>
       </c>
       <c r="D2557">
-        <v>214.5015885444672</v>
+        <v>216.1699712350733</v>
       </c>
       <c r="E2557" t="s">
         <v>2683</v>
@@ -51952,7 +51952,7 @@
         <v>3</v>
       </c>
       <c r="D2560">
-        <v>136.1722556128317</v>
+        <v>137.559221846253</v>
       </c>
       <c r="E2560" t="s">
         <v>2684</v>
@@ -51969,7 +51969,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>817.0335336769905</v>
+        <v>825.355331077518</v>
       </c>
       <c r="E2561" t="s">
         <v>2683</v>
@@ -51986,7 +51986,7 @@
         <v>3</v>
       </c>
       <c r="D2562">
-        <v>138.2398047950323</v>
+        <v>137.2071642242926</v>
       </c>
       <c r="E2562" t="s">
         <v>2684</v>
@@ -52003,7 +52003,7 @@
         <v>1</v>
       </c>
       <c r="D2563">
-        <v>829.4388287701938</v>
+        <v>823.2429853457554</v>
       </c>
       <c r="E2563" t="s">
         <v>2683</v>
@@ -52275,7 +52275,7 @@
         <v>29</v>
       </c>
       <c r="D2579">
-        <v>226.75</v>
+        <v>228.75</v>
       </c>
       <c r="E2579" t="s">
         <v>2683</v>
@@ -52292,7 +52292,7 @@
         <v>29</v>
       </c>
       <c r="D2580">
-        <v>319.25</v>
+        <v>322.25</v>
       </c>
       <c r="E2580" t="s">
         <v>2683</v>
@@ -52394,7 +52394,7 @@
         <v>1</v>
       </c>
       <c r="D2586">
-        <v>321.75</v>
+        <v>325.25</v>
       </c>
       <c r="E2586" t="s">
         <v>2683</v>
@@ -52445,7 +52445,7 @@
         <v>1</v>
       </c>
       <c r="D2589">
-        <v>615.75</v>
+        <v>622.5</v>
       </c>
       <c r="E2589" t="s">
         <v>2683</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="D2590">
-        <v>202.1866471497628</v>
+        <v>204.4021736413436</v>
       </c>
       <c r="E2590" t="s">
         <v>2683</v>
@@ -53074,7 +53074,7 @@
         <v>11</v>
       </c>
       <c r="D2626">
-        <v>34.5</v>
+        <v>34.75</v>
       </c>
       <c r="E2626" t="s">
         <v>2684</v>
@@ -53091,7 +53091,7 @@
         <v>15</v>
       </c>
       <c r="D2627">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E2627" t="s">
         <v>2683</v>
@@ -53108,7 +53108,7 @@
         <v>16</v>
       </c>
       <c r="D2628">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E2628" t="s">
         <v>2683</v>
@@ -53125,7 +53125,7 @@
         <v>1</v>
       </c>
       <c r="D2629">
-        <v>1656</v>
+        <v>1668</v>
       </c>
       <c r="E2629" t="s">
         <v>2683</v>
@@ -53176,7 +53176,7 @@
         <v>2</v>
       </c>
       <c r="D2632">
-        <v>306.5</v>
+        <v>306.25</v>
       </c>
       <c r="E2632" t="s">
         <v>2683</v>
@@ -53278,7 +53278,7 @@
         <v>1</v>
       </c>
       <c r="D2638">
-        <v>385.25</v>
+        <v>387.5</v>
       </c>
       <c r="E2638" t="s">
         <v>2683</v>
@@ -53295,7 +53295,7 @@
         <v>1</v>
       </c>
       <c r="D2639">
-        <v>385.25</v>
+        <v>387.5</v>
       </c>
       <c r="E2639" t="s">
         <v>2683</v>
@@ -53363,7 +53363,7 @@
         <v>3</v>
       </c>
       <c r="D2643">
-        <v>133.5</v>
+        <v>132.25</v>
       </c>
       <c r="E2643" t="s">
         <v>2684</v>
@@ -53380,7 +53380,7 @@
         <v>1</v>
       </c>
       <c r="D2644">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="E2644" t="s">
         <v>2683</v>
@@ -54655,7 +54655,7 @@
         <v>3</v>
       </c>
       <c r="D2719">
-        <v>176.0600877595454</v>
+        <v>176.0601797128821</v>
       </c>
       <c r="E2719" t="s">
         <v>2684</v>
@@ -54672,7 +54672,7 @@
         <v>1</v>
       </c>
       <c r="D2720">
-        <v>1056.360526557273</v>
+        <v>1056.361078277293</v>
       </c>
       <c r="E2720" t="s">
         <v>2683</v>
@@ -54995,7 +54995,7 @@
         <v>23</v>
       </c>
       <c r="D2739">
-        <v>123</v>
+        <v>129.25</v>
       </c>
       <c r="E2739" t="s">
         <v>2684</v>
@@ -55012,7 +55012,7 @@
         <v>2</v>
       </c>
       <c r="D2740">
-        <v>738</v>
+        <v>775.5</v>
       </c>
       <c r="E2740" t="s">
         <v>2683</v>
@@ -55029,7 +55029,7 @@
         <v>1</v>
       </c>
       <c r="D2741">
-        <v>5904</v>
+        <v>6204</v>
       </c>
       <c r="E2741" t="s">
         <v>2683</v>
@@ -55301,7 +55301,7 @@
         <v>3</v>
       </c>
       <c r="D2757">
-        <v>142.8056904344909</v>
+        <v>142.6709093599507</v>
       </c>
       <c r="E2757" t="s">
         <v>2684</v>
@@ -55318,7 +55318,7 @@
         <v>1</v>
       </c>
       <c r="D2758">
-        <v>1713.66828521389</v>
+        <v>1712.050912319408</v>
       </c>
       <c r="E2758" t="s">
         <v>2683</v>
@@ -55369,7 +55369,7 @@
         <v>3</v>
       </c>
       <c r="D2761">
-        <v>143.4463558968916</v>
+        <v>143.3461623134495</v>
       </c>
       <c r="E2761" t="s">
         <v>2684</v>
@@ -55386,7 +55386,7 @@
         <v>1</v>
       </c>
       <c r="D2762">
-        <v>1721.356270762699</v>
+        <v>1720.153947761394</v>
       </c>
       <c r="E2762" t="s">
         <v>2683</v>
@@ -56610,7 +56610,7 @@
         <v>5</v>
       </c>
       <c r="D2834">
-        <v>49.75</v>
+        <v>50.25</v>
       </c>
       <c r="E2834" t="s">
         <v>2683</v>
@@ -56712,7 +56712,7 @@
         <v>2</v>
       </c>
       <c r="D2840">
-        <v>114.25</v>
+        <v>111</v>
       </c>
       <c r="E2840" t="s">
         <v>2683</v>
@@ -59245,7 +59245,7 @@
         <v>1</v>
       </c>
       <c r="D2989">
-        <v>232.25</v>
+        <v>234.75</v>
       </c>
       <c r="E2989" t="s">
         <v>2683</v>
@@ -59262,7 +59262,7 @@
         <v>1</v>
       </c>
       <c r="D2990">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="E2990" t="s">
         <v>2683</v>
@@ -59823,7 +59823,7 @@
         <v>2</v>
       </c>
       <c r="D3023">
-        <v>147.5</v>
+        <v>148.75</v>
       </c>
       <c r="E3023" t="s">
         <v>2683</v>
@@ -59840,7 +59840,7 @@
         <v>5</v>
       </c>
       <c r="D3024">
-        <v>50.25</v>
+        <v>50.75</v>
       </c>
       <c r="E3024" t="s">
         <v>2683</v>
@@ -60061,7 +60061,7 @@
         <v>1</v>
       </c>
       <c r="D3037">
-        <v>609.3578906899223</v>
+        <v>609.3567600759162</v>
       </c>
       <c r="E3037" t="s">
         <v>2683</v>
@@ -60197,7 +60197,7 @@
         <v>3</v>
       </c>
       <c r="D3045">
-        <v>17.43643963626939</v>
+        <v>17.43644473401938</v>
       </c>
       <c r="E3045" t="s">
         <v>2684</v>
@@ -60214,7 +60214,7 @@
         <v>1</v>
       </c>
       <c r="D3046">
-        <v>1255.423653811396</v>
+        <v>1255.424020849395</v>
       </c>
       <c r="E3046" t="s">
         <v>2683</v>
@@ -60299,7 +60299,7 @@
         <v>3</v>
       </c>
       <c r="D3051">
-        <v>35.69327357473254</v>
+        <v>35.69328707747328</v>
       </c>
       <c r="E3051" t="s">
         <v>2684</v>
@@ -60316,7 +60316,7 @@
         <v>1</v>
       </c>
       <c r="D3052">
-        <v>1284.957848690372</v>
+        <v>1284.958334789038</v>
       </c>
       <c r="E3052" t="s">
         <v>2683</v>
@@ -60333,7 +60333,7 @@
         <v>4</v>
       </c>
       <c r="D3053">
-        <v>58.40968529152837</v>
+        <v>58.40968529152838</v>
       </c>
       <c r="E3053" t="s">
         <v>2684</v>
@@ -60435,7 +60435,7 @@
         <v>4</v>
       </c>
       <c r="D3059">
-        <v>58.42269750699957</v>
+        <v>58.42269421230753</v>
       </c>
       <c r="E3059" t="s">
         <v>2684</v>
@@ -60452,7 +60452,7 @@
         <v>1</v>
       </c>
       <c r="D3060">
-        <v>1402.14474016799</v>
+        <v>1402.144661095381</v>
       </c>
       <c r="E3060" t="s">
         <v>2683</v>
@@ -60707,7 +60707,7 @@
         <v>1</v>
       </c>
       <c r="D3075">
-        <v>609.8181376777962</v>
+        <v>609.8168638697925</v>
       </c>
       <c r="E3075" t="s">
         <v>2683</v>
@@ -61200,7 +61200,7 @@
         <v>29</v>
       </c>
       <c r="D3104">
-        <v>294.5</v>
+        <v>297.25</v>
       </c>
       <c r="E3104" t="s">
         <v>2683</v>
@@ -61217,7 +61217,7 @@
         <v>29</v>
       </c>
       <c r="D3105">
-        <v>279</v>
+        <v>281.5</v>
       </c>
       <c r="E3105" t="s">
         <v>2683</v>
@@ -61472,7 +61472,7 @@
         <v>3</v>
       </c>
       <c r="D3120">
-        <v>56.25</v>
+        <v>56.5</v>
       </c>
       <c r="E3120" t="s">
         <v>2684</v>
@@ -61489,7 +61489,7 @@
         <v>1</v>
       </c>
       <c r="D3121">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E3121" t="s">
         <v>2683</v>
@@ -61591,7 +61591,7 @@
         <v>25</v>
       </c>
       <c r="D3127">
-        <v>153.25</v>
+        <v>153</v>
       </c>
       <c r="E3127" t="s">
         <v>2684</v>
@@ -61608,7 +61608,7 @@
         <v>29</v>
       </c>
       <c r="D3128">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E3128" t="s">
         <v>2683</v>
@@ -62832,7 +62832,7 @@
         <v>4</v>
       </c>
       <c r="D3200">
-        <v>58.42268358135811</v>
+        <v>58.4226876907225</v>
       </c>
       <c r="E3200" t="s">
         <v>2684</v>
@@ -62849,7 +62849,7 @@
         <v>1</v>
       </c>
       <c r="D3201">
-        <v>1402.144405952595</v>
+        <v>1402.14450457734</v>
       </c>
       <c r="E3201" t="s">
         <v>2683</v>
@@ -63342,7 +63342,7 @@
         <v>4</v>
       </c>
       <c r="D3230">
-        <v>754.9155443312338</v>
+        <v>753</v>
       </c>
       <c r="E3230" t="s">
         <v>2684</v>
@@ -63359,7 +63359,7 @@
         <v>1</v>
       </c>
       <c r="D3231">
-        <v>9058.986531974806</v>
+        <v>9036</v>
       </c>
       <c r="E3231" t="s">
         <v>2683</v>
@@ -64532,7 +64532,7 @@
         <v>1</v>
       </c>
       <c r="D3300">
-        <v>883</v>
+        <v>882.25</v>
       </c>
       <c r="E3300" t="s">
         <v>2683</v>
@@ -64549,7 +64549,7 @@
         <v>1</v>
       </c>
       <c r="D3301">
-        <v>883</v>
+        <v>882.25</v>
       </c>
       <c r="E3301" t="s">
         <v>2683</v>
@@ -64991,7 +64991,7 @@
         <v>1</v>
       </c>
       <c r="D3327">
-        <v>150.75</v>
+        <v>151.75</v>
       </c>
       <c r="E3327" t="s">
         <v>2683</v>
@@ -68459,7 +68459,7 @@
         <v>1</v>
       </c>
       <c r="D3531">
-        <v>169.25</v>
+        <v>170.75</v>
       </c>
       <c r="E3531" t="s">
         <v>2683</v>
@@ -72267,7 +72267,7 @@
         <v>12</v>
       </c>
       <c r="D3755">
-        <v>398.1858018848047</v>
+        <v>398.0577082429044</v>
       </c>
       <c r="E3755" t="s">
         <v>2683</v>
@@ -72284,7 +72284,7 @@
         <v>12</v>
       </c>
       <c r="D3756">
-        <v>397.6232763921435</v>
+        <v>396.0719150906643</v>
       </c>
       <c r="E3756" t="s">
         <v>2683</v>
@@ -72777,7 +72777,7 @@
         <v>2</v>
       </c>
       <c r="D3785">
-        <v>263.75</v>
+        <v>265</v>
       </c>
       <c r="E3785" t="s">
         <v>2683</v>
@@ -74919,7 +74919,7 @@
         <v>1</v>
       </c>
       <c r="D3911">
-        <v>243.25</v>
+        <v>245.75</v>
       </c>
       <c r="E3911" t="s">
         <v>2683</v>
@@ -75208,7 +75208,7 @@
         <v>2</v>
       </c>
       <c r="D3928">
-        <v>1194.75</v>
+        <v>1168.25</v>
       </c>
       <c r="E3928" t="s">
         <v>2683</v>
@@ -75225,7 +75225,7 @@
         <v>2</v>
       </c>
       <c r="D3929">
-        <v>1188</v>
+        <v>1201.120193700105</v>
       </c>
       <c r="E3929" t="s">
         <v>2683</v>
@@ -75395,7 +75395,7 @@
         <v>29</v>
       </c>
       <c r="D3939">
-        <v>493.5</v>
+        <v>497.25</v>
       </c>
       <c r="E3939" t="s">
         <v>2683</v>

--- a/manual/output_1223_chunk_1.xlsx
+++ b/manual/output_1223_chunk_1.xlsx
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>312.75</v>
+        <v>315.5</v>
       </c>
       <c r="E2" t="s">
         <v>2686</v>
@@ -8781,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>193</v>
+        <v>193.75</v>
       </c>
       <c r="E20" t="s">
         <v>2686</v>
@@ -8798,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>312.75</v>
+        <v>315.5</v>
       </c>
       <c r="E21" t="s">
         <v>2686</v>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>327.5</v>
+        <v>327.75</v>
       </c>
       <c r="E22" t="s">
         <v>2686</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E26" t="s">
         <v>2686</v>
@@ -9206,7 +9206,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>313.25</v>
+        <v>315.75</v>
       </c>
       <c r="E45" t="s">
         <v>2686</v>
@@ -9257,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>262.5</v>
+        <v>262.25</v>
       </c>
       <c r="E48" t="s">
         <v>2686</v>
@@ -9563,7 +9563,7 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>262.5</v>
+        <v>262.25</v>
       </c>
       <c r="E66" t="s">
         <v>2686</v>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>327.5</v>
+        <v>327.75</v>
       </c>
       <c r="E73" t="s">
         <v>2686</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>327.5</v>
+        <v>327.75</v>
       </c>
       <c r="E83" t="s">
         <v>2686</v>
@@ -10005,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>188.5</v>
+        <v>189.25</v>
       </c>
       <c r="E92" t="s">
         <v>2686</v>
@@ -10073,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="D96">
-        <v>262.25</v>
+        <v>261.75</v>
       </c>
       <c r="E96" t="s">
         <v>2686</v>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E101" t="s">
         <v>2686</v>
@@ -10566,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>262.25</v>
+        <v>261.75</v>
       </c>
       <c r="E125" t="s">
         <v>2686</v>
@@ -10583,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>307</v>
+        <v>306.5</v>
       </c>
       <c r="E126" t="s">
         <v>2686</v>
@@ -10736,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>232.5</v>
+        <v>232</v>
       </c>
       <c r="E135" t="s">
         <v>2686</v>
@@ -10838,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>327.5</v>
+        <v>327.75</v>
       </c>
       <c r="E141" t="s">
         <v>2686</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>771</v>
+        <v>773.5</v>
       </c>
       <c r="E147" t="s">
         <v>2686</v>
@@ -11178,7 +11178,7 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="E161" t="s">
         <v>2687</v>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E162" t="s">
         <v>2686</v>
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E165" t="s">
         <v>2686</v>
@@ -11450,7 +11450,7 @@
         <v>10</v>
       </c>
       <c r="D177">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="E177" t="s">
         <v>2687</v>
@@ -11467,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E178" t="s">
         <v>2686</v>
@@ -11518,7 +11518,7 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>262.25</v>
+        <v>261.75</v>
       </c>
       <c r="E181" t="s">
         <v>2686</v>
@@ -11688,7 +11688,7 @@
         <v>25</v>
       </c>
       <c r="D191">
-        <v>323.25</v>
+        <v>323.5</v>
       </c>
       <c r="E191" t="s">
         <v>2687</v>
@@ -11705,7 +11705,7 @@
         <v>29</v>
       </c>
       <c r="D192">
-        <v>969.75</v>
+        <v>970.5</v>
       </c>
       <c r="E192" t="s">
         <v>2686</v>
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>342.75</v>
+        <v>338.5</v>
       </c>
       <c r="E195" t="s">
         <v>2686</v>
@@ -12113,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>914.75</v>
+        <v>912.75</v>
       </c>
       <c r="E216" t="s">
         <v>2687</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5488.5</v>
+        <v>5476.5</v>
       </c>
       <c r="E217" t="s">
         <v>2686</v>
@@ -12572,7 +12572,7 @@
         <v>10</v>
       </c>
       <c r="D243">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
         <v>2687</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E244" t="s">
         <v>2686</v>
@@ -12793,7 +12793,7 @@
         <v>10</v>
       </c>
       <c r="D256">
-        <v>24.25</v>
+        <v>24</v>
       </c>
       <c r="E256" t="s">
         <v>2687</v>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E257" t="s">
         <v>2686</v>
@@ -14629,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="D364">
-        <v>177.75</v>
+        <v>177.5</v>
       </c>
       <c r="E364" t="s">
         <v>2686</v>
@@ -15564,7 +15564,7 @@
         <v>80</v>
       </c>
       <c r="D419">
-        <v>136.25</v>
+        <v>136</v>
       </c>
       <c r="E419" t="s">
         <v>2687</v>
@@ -15581,7 +15581,7 @@
         <v>29</v>
       </c>
       <c r="D420">
-        <v>681.25</v>
+        <v>680</v>
       </c>
       <c r="E420" t="s">
         <v>2686</v>
@@ -15683,7 +15683,7 @@
         <v>2</v>
       </c>
       <c r="D426">
-        <v>1168.5</v>
+        <v>1172.25</v>
       </c>
       <c r="E426" t="s">
         <v>2686</v>
@@ -15751,7 +15751,7 @@
         <v>2</v>
       </c>
       <c r="D430">
-        <v>113.5</v>
+        <v>113</v>
       </c>
       <c r="E430" t="s">
         <v>2686</v>
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>233.25</v>
+        <v>234.5</v>
       </c>
       <c r="E431" t="s">
         <v>2686</v>
@@ -16414,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>233.25</v>
+        <v>234.5</v>
       </c>
       <c r="E469" t="s">
         <v>2686</v>
@@ -17961,7 +17961,7 @@
         <v>1</v>
       </c>
       <c r="D560">
-        <v>212.5</v>
+        <v>211.5</v>
       </c>
       <c r="E560" t="s">
         <v>2686</v>
@@ -17978,7 +17978,7 @@
         <v>1</v>
       </c>
       <c r="D561">
-        <v>212.5</v>
+        <v>211.5</v>
       </c>
       <c r="E561" t="s">
         <v>2686</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="D562">
-        <v>212.5</v>
+        <v>211.5</v>
       </c>
       <c r="E562" t="s">
         <v>2686</v>
@@ -18012,7 +18012,7 @@
         <v>7</v>
       </c>
       <c r="D563">
-        <v>104.25</v>
+        <v>106.75</v>
       </c>
       <c r="E563" t="s">
         <v>2687</v>
@@ -18029,7 +18029,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>1876.5</v>
+        <v>1921.5</v>
       </c>
       <c r="E564" t="s">
         <v>2686</v>
@@ -18063,7 +18063,7 @@
         <v>7</v>
       </c>
       <c r="D566">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="E566" t="s">
         <v>2687</v>
@@ -18080,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="E567" t="s">
         <v>2686</v>
@@ -19780,7 +19780,7 @@
         <v>2</v>
       </c>
       <c r="D667">
-        <v>312.75</v>
+        <v>315.5</v>
       </c>
       <c r="E667" t="s">
         <v>2686</v>
@@ -21701,7 +21701,7 @@
         <v>3</v>
       </c>
       <c r="D780">
-        <v>49</v>
+        <v>49.25</v>
       </c>
       <c r="E780" t="s">
         <v>2687</v>
@@ -21718,7 +21718,7 @@
         <v>1</v>
       </c>
       <c r="D781">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E781" t="s">
         <v>2686</v>
@@ -21735,7 +21735,7 @@
         <v>3</v>
       </c>
       <c r="D782">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="E782" t="s">
         <v>2687</v>
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="D783">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E783" t="s">
         <v>2686</v>
@@ -23826,7 +23826,7 @@
         <v>1</v>
       </c>
       <c r="D905">
-        <v>727</v>
+        <v>726.75</v>
       </c>
       <c r="E905" t="s">
         <v>2686</v>
@@ -23843,7 +23843,7 @@
         <v>1</v>
       </c>
       <c r="D906">
-        <v>741</v>
+        <v>740.25</v>
       </c>
       <c r="E906" t="s">
         <v>2686</v>
@@ -24472,7 +24472,7 @@
         <v>2</v>
       </c>
       <c r="D943">
-        <v>313.25</v>
+        <v>315.75</v>
       </c>
       <c r="E943" t="s">
         <v>2686</v>
@@ -25203,7 +25203,7 @@
         <v>1</v>
       </c>
       <c r="D986">
-        <v>804.75</v>
+        <v>810.75</v>
       </c>
       <c r="E986" t="s">
         <v>2686</v>
@@ -26104,7 +26104,7 @@
         <v>1</v>
       </c>
       <c r="D1039">
-        <v>359</v>
+        <v>362.25</v>
       </c>
       <c r="E1039" t="s">
         <v>2686</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="D1042">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1042" t="s">
         <v>2686</v>
@@ -26886,7 +26886,7 @@
         <v>1</v>
       </c>
       <c r="D1085">
-        <v>949.25</v>
+        <v>948.5</v>
       </c>
       <c r="E1085" t="s">
         <v>2686</v>
@@ -26903,7 +26903,7 @@
         <v>1</v>
       </c>
       <c r="D1086">
-        <v>966</v>
+        <v>965.5</v>
       </c>
       <c r="E1086" t="s">
         <v>2686</v>
@@ -30218,7 +30218,7 @@
         <v>3</v>
       </c>
       <c r="D1281">
-        <v>138.3118886264585</v>
+        <v>138.5631748139361</v>
       </c>
       <c r="E1281" t="s">
         <v>2687</v>
@@ -30235,7 +30235,7 @@
         <v>1</v>
       </c>
       <c r="D1282">
-        <v>829.8713317587509</v>
+        <v>831.3790488836169</v>
       </c>
       <c r="E1282" t="s">
         <v>2686</v>
@@ -31408,7 +31408,7 @@
         <v>1</v>
       </c>
       <c r="D1351">
-        <v>722</v>
+        <v>728.5</v>
       </c>
       <c r="E1351" t="s">
         <v>2686</v>
@@ -33465,7 +33465,7 @@
         <v>2</v>
       </c>
       <c r="D1472">
-        <v>138.7943939285402</v>
+        <v>138.9479140010717</v>
       </c>
       <c r="E1472" t="s">
         <v>2686</v>
@@ -34587,7 +34587,7 @@
         <v>1</v>
       </c>
       <c r="D1538">
-        <v>388.8304049868258</v>
+        <v>388.6210396935314</v>
       </c>
       <c r="E1538" t="s">
         <v>2686</v>
@@ -34604,7 +34604,7 @@
         <v>1</v>
       </c>
       <c r="D1539">
-        <v>388.8277023034522</v>
+        <v>388.6183399198777</v>
       </c>
       <c r="E1539" t="s">
         <v>2686</v>
@@ -35811,7 +35811,7 @@
         <v>1</v>
       </c>
       <c r="D1610">
-        <v>253</v>
+        <v>254.75</v>
       </c>
       <c r="E1610" t="s">
         <v>2686</v>
@@ -35998,7 +35998,7 @@
         <v>2</v>
       </c>
       <c r="D1621">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E1621" t="s">
         <v>2687</v>
@@ -36015,7 +36015,7 @@
         <v>1</v>
       </c>
       <c r="D1622">
-        <v>1764</v>
+        <v>1848</v>
       </c>
       <c r="E1622" t="s">
         <v>2686</v>
@@ -40452,7 +40452,7 @@
         <v>1</v>
       </c>
       <c r="D1883">
-        <v>846.9761605511453</v>
+        <v>848.8114830512064</v>
       </c>
       <c r="E1883" t="s">
         <v>2686</v>
@@ -41676,7 +41676,7 @@
         <v>2</v>
       </c>
       <c r="D1955">
-        <v>193</v>
+        <v>192.5</v>
       </c>
       <c r="E1955" t="s">
         <v>2686</v>
@@ -43971,7 +43971,7 @@
         <v>2</v>
       </c>
       <c r="D2090">
-        <v>138.8005125957131</v>
+        <v>138.9540462117093</v>
       </c>
       <c r="E2090" t="s">
         <v>2686</v>
@@ -44804,7 +44804,7 @@
         <v>1</v>
       </c>
       <c r="D2139">
-        <v>728.75</v>
+        <v>715.25</v>
       </c>
       <c r="E2139" t="s">
         <v>2686</v>
@@ -45195,7 +45195,7 @@
         <v>3</v>
       </c>
       <c r="D2162">
-        <v>89.5</v>
+        <v>88</v>
       </c>
       <c r="E2162" t="s">
         <v>2687</v>
@@ -45212,7 +45212,7 @@
         <v>1</v>
       </c>
       <c r="D2163">
-        <v>2148</v>
+        <v>2112</v>
       </c>
       <c r="E2163" t="s">
         <v>2686</v>
@@ -46300,7 +46300,7 @@
         <v>2</v>
       </c>
       <c r="D2227">
-        <v>138.8078420479209</v>
+        <v>138.9613918882009</v>
       </c>
       <c r="E2227" t="s">
         <v>2686</v>
@@ -46555,7 +46555,7 @@
         <v>2</v>
       </c>
       <c r="D2242">
-        <v>113.5</v>
+        <v>113</v>
       </c>
       <c r="E2242" t="s">
         <v>2686</v>
@@ -47354,7 +47354,7 @@
         <v>2</v>
       </c>
       <c r="D2289">
-        <v>159.9369363763822</v>
+        <v>159.9686388972981</v>
       </c>
       <c r="E2289" t="s">
         <v>2686</v>
@@ -49479,7 +49479,7 @@
         <v>1</v>
       </c>
       <c r="D2414">
-        <v>753.75</v>
+        <v>753.5</v>
       </c>
       <c r="E2414" t="s">
         <v>2686</v>
@@ -49496,7 +49496,7 @@
         <v>1</v>
       </c>
       <c r="D2415">
-        <v>975.25</v>
+        <v>974.75</v>
       </c>
       <c r="E2415" t="s">
         <v>2686</v>
@@ -52131,7 +52131,7 @@
         <v>3</v>
       </c>
       <c r="D2570">
-        <v>138.4793559241025</v>
+        <v>138.7312515460403</v>
       </c>
       <c r="E2570" t="s">
         <v>2687</v>
@@ -52148,7 +52148,7 @@
         <v>1</v>
       </c>
       <c r="D2571">
-        <v>830.8761355446147</v>
+        <v>832.3875092762416</v>
       </c>
       <c r="E2571" t="s">
         <v>2686</v>
@@ -56840,7 +56840,7 @@
         <v>2</v>
       </c>
       <c r="D2847">
-        <v>113.5</v>
+        <v>113</v>
       </c>
       <c r="E2847" t="s">
         <v>2686</v>
@@ -56857,7 +56857,7 @@
         <v>2</v>
       </c>
       <c r="D2848">
-        <v>114.25</v>
+        <v>111</v>
       </c>
       <c r="E2848" t="s">
         <v>2686</v>
@@ -61617,7 +61617,7 @@
         <v>3</v>
       </c>
       <c r="D3128">
-        <v>56.25</v>
+        <v>56.5</v>
       </c>
       <c r="E3128" t="s">
         <v>2687</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="D3129">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="E3129" t="s">
         <v>2686</v>
@@ -61682,7 +61682,7 @@
         <v>2089</v>
       </c>
       <c r="C3132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3132">
         <v>23.5</v>
@@ -61699,7 +61699,7 @@
         <v>2089</v>
       </c>
       <c r="C3133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3133">
         <v>23.5</v>
@@ -61736,7 +61736,7 @@
         <v>25</v>
       </c>
       <c r="D3135">
-        <v>153</v>
+        <v>152.5</v>
       </c>
       <c r="E3135" t="s">
         <v>2687</v>
@@ -61753,7 +61753,7 @@
         <v>29</v>
       </c>
       <c r="D3136">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E3136" t="s">
         <v>2686</v>
@@ -71902,7 +71902,7 @@
         <v>332</v>
       </c>
       <c r="D3733">
-        <v>1221.971884229466</v>
+        <v>1246.216580123642</v>
       </c>
       <c r="E3733" t="s">
         <v>2687</v>
@@ -71919,7 +71919,7 @@
         <v>1</v>
       </c>
       <c r="D3734">
-        <v>4887.887536917863</v>
+        <v>4984.866320494566</v>
       </c>
       <c r="E3734" t="s">
         <v>2686</v>
@@ -71970,7 +71970,7 @@
         <v>332</v>
       </c>
       <c r="D3737">
-        <v>1223.03939028528</v>
+        <v>1252.129262029398</v>
       </c>
       <c r="E3737" t="s">
         <v>2687</v>
@@ -71987,7 +71987,7 @@
         <v>1</v>
       </c>
       <c r="D3738">
-        <v>4892.15756114112</v>
+        <v>5008.51704811759</v>
       </c>
       <c r="E3738" t="s">
         <v>2686</v>
@@ -75353,7 +75353,7 @@
         <v>2</v>
       </c>
       <c r="D3936">
-        <v>1199.25</v>
+        <v>1205.25</v>
       </c>
       <c r="E3936" t="s">
         <v>2686</v>
@@ -75370,7 +75370,7 @@
         <v>2</v>
       </c>
       <c r="D3937">
-        <v>1202.700194310391</v>
+        <v>1206.556981783688</v>
       </c>
       <c r="E3937" t="s">
         <v>2686</v>
@@ -75387,7 +75387,7 @@
         <v>2</v>
       </c>
       <c r="D3938">
-        <v>480</v>
+        <v>481.5</v>
       </c>
       <c r="E3938" t="s">
         <v>2686</v>

--- a/manual/output_1223_chunk_1.xlsx
+++ b/manual/output_1223_chunk_1.xlsx
@@ -508,7 +508,7 @@
     <t>حفاضات جود كير مقاس 6 - 40 حفاضة</t>
   </si>
   <si>
-    <t>فاين برستيج 480 منديل عرض خاص "6 شرينك" * 3 طبقة 500 منديل</t>
+    <t>فاين برستيج عرض خاص 500 منديل  "6 شرينك" * 3 طبقة 500 منديل</t>
   </si>
   <si>
     <t>لبن المراعى كامل الدسم - 200 مل</t>
@@ -8509,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
       <c r="E4" t="s">
         <v>2687</v>
@@ -8526,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E5" t="s">
         <v>2686</v>
@@ -8594,7 +8594,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>399.25</v>
+        <v>399.5</v>
       </c>
       <c r="E9" t="s">
         <v>2687</v>
@@ -8611,7 +8611,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>798.5</v>
+        <v>799</v>
       </c>
       <c r="E10" t="s">
         <v>2686</v>
@@ -8730,7 +8730,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
       <c r="E17" t="s">
         <v>2687</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E18" t="s">
         <v>2686</v>
@@ -8832,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>483.5</v>
+        <v>483.75</v>
       </c>
       <c r="E23" t="s">
         <v>2686</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E26" t="s">
         <v>2686</v>
@@ -8968,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>111</v>
+        <v>113.5</v>
       </c>
       <c r="E31" t="s">
         <v>2686</v>
@@ -9053,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>101.75</v>
+        <v>101.5</v>
       </c>
       <c r="E36" t="s">
         <v>2686</v>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>250.25</v>
+        <v>251.75</v>
       </c>
       <c r="E47" t="s">
         <v>2686</v>
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>131.75</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
         <v>2686</v>
@@ -9903,7 +9903,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>268</v>
+        <v>268.25</v>
       </c>
       <c r="E86" t="s">
         <v>2686</v>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E101" t="s">
         <v>2686</v>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>668.5</v>
+        <v>668.25</v>
       </c>
       <c r="E128" t="s">
         <v>2686</v>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>710</v>
+        <v>710.25</v>
       </c>
       <c r="E132" t="s">
         <v>2686</v>
@@ -10753,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>144.75</v>
+        <v>145.25</v>
       </c>
       <c r="E136" t="s">
         <v>2686</v>
@@ -10872,7 +10872,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>101.75</v>
+        <v>101.5</v>
       </c>
       <c r="E143" t="s">
         <v>2686</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>773.5</v>
+        <v>774</v>
       </c>
       <c r="E147" t="s">
         <v>2686</v>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>168.75</v>
+        <v>169.25</v>
       </c>
       <c r="E158" t="s">
         <v>2686</v>
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E165" t="s">
         <v>2686</v>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>497</v>
+        <v>496.75</v>
       </c>
       <c r="E179" t="s">
         <v>2686</v>
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>338.5</v>
+        <v>342.75</v>
       </c>
       <c r="E195" t="s">
         <v>2686</v>
@@ -12011,7 +12011,7 @@
         <v>10</v>
       </c>
       <c r="D210">
-        <v>415.5</v>
+        <v>416.25</v>
       </c>
       <c r="E210" t="s">
         <v>2687</v>
@@ -12028,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>831</v>
+        <v>832.5</v>
       </c>
       <c r="E211" t="s">
         <v>2686</v>
@@ -12300,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>952.75</v>
+        <v>949.25</v>
       </c>
       <c r="E227" t="s">
         <v>2686</v>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="D240">
-        <v>236</v>
+        <v>235.75</v>
       </c>
       <c r="E240" t="s">
         <v>2686</v>
@@ -12640,7 +12640,7 @@
         <v>3</v>
       </c>
       <c r="D247">
-        <v>46.75</v>
+        <v>47</v>
       </c>
       <c r="E247" t="s">
         <v>2687</v>
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E248" t="s">
         <v>2686</v>
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>778.25</v>
+        <v>774.25</v>
       </c>
       <c r="E252" t="s">
         <v>2686</v>
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>474.5</v>
+        <v>473.75</v>
       </c>
       <c r="E277" t="s">
         <v>2686</v>
@@ -13422,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>596.5</v>
+        <v>596.25</v>
       </c>
       <c r="E293" t="s">
         <v>2686</v>
@@ -13575,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>144.75</v>
+        <v>145.25</v>
       </c>
       <c r="E302" t="s">
         <v>2686</v>
@@ -13609,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="D304">
-        <v>41.75</v>
+        <v>43.5</v>
       </c>
       <c r="E304" t="s">
         <v>2687</v>
@@ -13626,7 +13626,7 @@
         <v>23</v>
       </c>
       <c r="D305">
-        <v>41.75</v>
+        <v>43.5</v>
       </c>
       <c r="E305" t="s">
         <v>2686</v>
@@ -13643,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="E306" t="s">
         <v>2686</v>
@@ -13796,7 +13796,7 @@
         <v>2</v>
       </c>
       <c r="D315">
-        <v>151.75</v>
+        <v>152</v>
       </c>
       <c r="E315" t="s">
         <v>2686</v>
@@ -13898,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>233.75</v>
+        <v>233.5</v>
       </c>
       <c r="E321" t="s">
         <v>2686</v>
@@ -13932,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>459</v>
+        <v>458.5</v>
       </c>
       <c r="E323" t="s">
         <v>2686</v>
@@ -14952,7 +14952,7 @@
         <v>80</v>
       </c>
       <c r="D383">
-        <v>135.75</v>
+        <v>136</v>
       </c>
       <c r="E383" t="s">
         <v>2687</v>
@@ -14969,7 +14969,7 @@
         <v>29</v>
       </c>
       <c r="D384">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E384" t="s">
         <v>2686</v>
@@ -15853,7 +15853,7 @@
         <v>29</v>
       </c>
       <c r="D436">
-        <v>281.25</v>
+        <v>281</v>
       </c>
       <c r="E436" t="s">
         <v>2686</v>
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>491.25</v>
+        <v>491.5</v>
       </c>
       <c r="E461" t="s">
         <v>2686</v>
@@ -16550,7 +16550,7 @@
         <v>25</v>
       </c>
       <c r="D477">
-        <v>399.75</v>
+        <v>400</v>
       </c>
       <c r="E477" t="s">
         <v>2687</v>
@@ -16567,7 +16567,7 @@
         <v>2</v>
       </c>
       <c r="D478">
-        <v>799.5</v>
+        <v>800</v>
       </c>
       <c r="E478" t="s">
         <v>2686</v>
@@ -16907,7 +16907,7 @@
         <v>3</v>
       </c>
       <c r="D498">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="E498" t="s">
         <v>2687</v>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E499" t="s">
         <v>2686</v>
@@ -17196,7 +17196,7 @@
         <v>80</v>
       </c>
       <c r="D515">
-        <v>216.75</v>
+        <v>213.75</v>
       </c>
       <c r="E515" t="s">
         <v>2687</v>
@@ -17213,7 +17213,7 @@
         <v>29</v>
       </c>
       <c r="D516">
-        <v>650.25</v>
+        <v>641.25</v>
       </c>
       <c r="E516" t="s">
         <v>2686</v>
@@ -17247,7 +17247,7 @@
         <v>3</v>
       </c>
       <c r="D518">
-        <v>106.5</v>
+        <v>107.25</v>
       </c>
       <c r="E518" t="s">
         <v>2687</v>
@@ -17264,7 +17264,7 @@
         <v>1</v>
       </c>
       <c r="D519">
-        <v>639</v>
+        <v>643.5</v>
       </c>
       <c r="E519" t="s">
         <v>2686</v>
@@ -17366,7 +17366,7 @@
         <v>10</v>
       </c>
       <c r="D525">
-        <v>49.25</v>
+        <v>49.5</v>
       </c>
       <c r="E525" t="s">
         <v>2687</v>
@@ -17383,7 +17383,7 @@
         <v>15</v>
       </c>
       <c r="D526">
-        <v>295.5</v>
+        <v>297</v>
       </c>
       <c r="E526" t="s">
         <v>2686</v>
@@ -17400,7 +17400,7 @@
         <v>16</v>
       </c>
       <c r="D527">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E527" t="s">
         <v>2686</v>
@@ -17417,7 +17417,7 @@
         <v>1</v>
       </c>
       <c r="D528">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="E528" t="s">
         <v>2686</v>
@@ -17672,7 +17672,7 @@
         <v>7</v>
       </c>
       <c r="D543">
-        <v>44.25</v>
+        <v>44.5</v>
       </c>
       <c r="E543" t="s">
         <v>2687</v>
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="D544">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E544" t="s">
         <v>2686</v>
@@ -18182,7 +18182,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>837.75</v>
+        <v>837.5</v>
       </c>
       <c r="E573" t="s">
         <v>2686</v>
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="D576">
-        <v>459</v>
+        <v>458.5</v>
       </c>
       <c r="E576" t="s">
         <v>2686</v>
@@ -18284,7 +18284,7 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <v>596.5</v>
+        <v>596.25</v>
       </c>
       <c r="E579" t="s">
         <v>2686</v>
@@ -22228,7 +22228,7 @@
         <v>25</v>
       </c>
       <c r="D811">
-        <v>333.6103415072124</v>
+        <v>333.6099107820441</v>
       </c>
       <c r="E811" t="s">
         <v>2687</v>
@@ -22245,7 +22245,7 @@
         <v>2</v>
       </c>
       <c r="D812">
-        <v>1000.831024521637</v>
+        <v>1000.829732346132</v>
       </c>
       <c r="E812" t="s">
         <v>2686</v>
@@ -23265,7 +23265,7 @@
         <v>2</v>
       </c>
       <c r="D872">
-        <v>268</v>
+        <v>268.25</v>
       </c>
       <c r="E872" t="s">
         <v>2686</v>
@@ -23282,7 +23282,7 @@
         <v>2</v>
       </c>
       <c r="D873">
-        <v>268</v>
+        <v>268.25</v>
       </c>
       <c r="E873" t="s">
         <v>2686</v>
@@ -23486,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="D885">
-        <v>613.25</v>
+        <v>612.5</v>
       </c>
       <c r="E885" t="s">
         <v>2686</v>
@@ -23724,7 +23724,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>841</v>
+        <v>841.25</v>
       </c>
       <c r="E899" t="s">
         <v>2686</v>
@@ -23775,7 +23775,7 @@
         <v>1</v>
       </c>
       <c r="D902">
-        <v>442.5</v>
+        <v>442.25</v>
       </c>
       <c r="E902" t="s">
         <v>2686</v>
@@ -23792,7 +23792,7 @@
         <v>1</v>
       </c>
       <c r="D903">
-        <v>415</v>
+        <v>414.5</v>
       </c>
       <c r="E903" t="s">
         <v>2686</v>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="D904">
-        <v>575.5</v>
+        <v>574.25</v>
       </c>
       <c r="E904" t="s">
         <v>2686</v>
@@ -28348,7 +28348,7 @@
         <v>10</v>
       </c>
       <c r="D1171">
-        <v>987.75</v>
+        <v>986.5</v>
       </c>
       <c r="E1171" t="s">
         <v>2686</v>
@@ -29283,7 +29283,7 @@
         <v>3</v>
       </c>
       <c r="D1226">
-        <v>219</v>
+        <v>219.25</v>
       </c>
       <c r="E1226" t="s">
         <v>2687</v>
@@ -29300,7 +29300,7 @@
         <v>1</v>
       </c>
       <c r="D1227">
-        <v>1314</v>
+        <v>1315.5</v>
       </c>
       <c r="E1227" t="s">
         <v>2686</v>
@@ -29317,7 +29317,7 @@
         <v>1</v>
       </c>
       <c r="D1228">
-        <v>709</v>
+        <v>708.75</v>
       </c>
       <c r="E1228" t="s">
         <v>2686</v>
@@ -29402,7 +29402,7 @@
         <v>12</v>
       </c>
       <c r="D1233">
-        <v>1002.5</v>
+        <v>1000.75</v>
       </c>
       <c r="E1233" t="s">
         <v>2686</v>
@@ -29810,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>672.105999834775</v>
+        <v>672.1218900059507</v>
       </c>
       <c r="E1257" t="s">
         <v>2686</v>
@@ -30966,7 +30966,7 @@
         <v>2</v>
       </c>
       <c r="D1325">
-        <v>289.5</v>
+        <v>289.25</v>
       </c>
       <c r="E1325" t="s">
         <v>2686</v>
@@ -31136,7 +31136,7 @@
         <v>1</v>
       </c>
       <c r="D1335">
-        <v>357.7712921455819</v>
+        <v>357.9425688382185</v>
       </c>
       <c r="E1335" t="s">
         <v>2686</v>
@@ -33431,7 +33431,7 @@
         <v>1</v>
       </c>
       <c r="D1470">
-        <v>562.75</v>
+        <v>563</v>
       </c>
       <c r="E1470" t="s">
         <v>2686</v>
@@ -33465,7 +33465,7 @@
         <v>2</v>
       </c>
       <c r="D1472">
-        <v>138.9479140010717</v>
+        <v>138.9478779280855</v>
       </c>
       <c r="E1472" t="s">
         <v>2686</v>
@@ -33907,7 +33907,7 @@
         <v>1</v>
       </c>
       <c r="D1498">
-        <v>216.0600320941866</v>
+        <v>216.0675165461392</v>
       </c>
       <c r="E1498" t="s">
         <v>2686</v>
@@ -33924,7 +33924,7 @@
         <v>1</v>
       </c>
       <c r="D1499">
-        <v>601.7742279385867</v>
+        <v>602.4193069195056</v>
       </c>
       <c r="E1499" t="s">
         <v>2686</v>
@@ -34604,7 +34604,7 @@
         <v>1</v>
       </c>
       <c r="D1539">
-        <v>388.6183399198777</v>
+        <v>388.6299931079666</v>
       </c>
       <c r="E1539" t="s">
         <v>2686</v>
@@ -35250,7 +35250,7 @@
         <v>1</v>
       </c>
       <c r="D1577">
-        <v>148.1823721123046</v>
+        <v>148.1863421763424</v>
       </c>
       <c r="E1577" t="s">
         <v>2686</v>
@@ -35607,7 +35607,7 @@
         <v>1</v>
       </c>
       <c r="D1598">
-        <v>169.1163884930393</v>
+        <v>169.1480879540795</v>
       </c>
       <c r="E1598" t="s">
         <v>2686</v>
@@ -35641,7 +35641,7 @@
         <v>1</v>
       </c>
       <c r="D1600">
-        <v>169.5617012823882</v>
+        <v>169.565821803363</v>
       </c>
       <c r="E1600" t="s">
         <v>2686</v>
@@ -36389,7 +36389,7 @@
         <v>1</v>
       </c>
       <c r="D1644">
-        <v>148.1839657919726</v>
+        <v>148.1871947848993</v>
       </c>
       <c r="E1644" t="s">
         <v>2686</v>
@@ -37154,7 +37154,7 @@
         <v>1</v>
       </c>
       <c r="D1689">
-        <v>672.6281293895335</v>
+        <v>672.6406959120317</v>
       </c>
       <c r="E1689" t="s">
         <v>2686</v>
@@ -37681,7 +37681,7 @@
         <v>3</v>
       </c>
       <c r="D1720">
-        <v>60.15137286889311</v>
+        <v>60.15137286889312</v>
       </c>
       <c r="E1720" t="s">
         <v>2687</v>
@@ -38259,7 +38259,7 @@
         <v>10</v>
       </c>
       <c r="D1754">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="E1754" t="s">
         <v>2687</v>
@@ -38276,7 +38276,7 @@
         <v>15</v>
       </c>
       <c r="D1755">
-        <v>82.5</v>
+        <v>84</v>
       </c>
       <c r="E1755" t="s">
         <v>2686</v>
@@ -38293,7 +38293,7 @@
         <v>16</v>
       </c>
       <c r="D1756">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E1756" t="s">
         <v>2686</v>
@@ -38310,7 +38310,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E1757" t="s">
         <v>2686</v>
@@ -38361,7 +38361,7 @@
         <v>3</v>
       </c>
       <c r="D1760">
-        <v>62</v>
+        <v>62.25</v>
       </c>
       <c r="E1760" t="s">
         <v>2687</v>
@@ -38378,7 +38378,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E1761" t="s">
         <v>2686</v>
@@ -40452,7 +40452,7 @@
         <v>1</v>
       </c>
       <c r="D1883">
-        <v>848.8114830512064</v>
+        <v>848.3652350283572</v>
       </c>
       <c r="E1883" t="s">
         <v>2686</v>
@@ -41999,7 +41999,7 @@
         <v>3</v>
       </c>
       <c r="D1974">
-        <v>96.24597582860666</v>
+        <v>96.24627108174981</v>
       </c>
       <c r="E1974" t="s">
         <v>2687</v>
@@ -42016,7 +42016,7 @@
         <v>1</v>
       </c>
       <c r="D1975">
-        <v>1154.95170994328</v>
+        <v>1154.955252980998</v>
       </c>
       <c r="E1975" t="s">
         <v>2686</v>
@@ -42033,7 +42033,7 @@
         <v>3</v>
       </c>
       <c r="D1976">
-        <v>96.16763256169727</v>
+        <v>96.1726765924718</v>
       </c>
       <c r="E1976" t="s">
         <v>2687</v>
@@ -42050,7 +42050,7 @@
         <v>1</v>
       </c>
       <c r="D1977">
-        <v>1154.011590740367</v>
+        <v>1154.072119109662</v>
       </c>
       <c r="E1977" t="s">
         <v>2686</v>
@@ -42067,7 +42067,7 @@
         <v>3</v>
       </c>
       <c r="D1978">
-        <v>96.24376865152651</v>
+        <v>96.24453725580844</v>
       </c>
       <c r="E1978" t="s">
         <v>2687</v>
@@ -42084,7 +42084,7 @@
         <v>1</v>
       </c>
       <c r="D1979">
-        <v>1154.925223818318</v>
+        <v>1154.934447069701</v>
       </c>
       <c r="E1979" t="s">
         <v>2686</v>
@@ -42730,7 +42730,7 @@
         <v>3</v>
       </c>
       <c r="D2017">
-        <v>144.2079482425261</v>
+        <v>144.2484800139884</v>
       </c>
       <c r="E2017" t="s">
         <v>2687</v>
@@ -42747,7 +42747,7 @@
         <v>1</v>
       </c>
       <c r="D2018">
-        <v>865.2476894551564</v>
+        <v>865.4908800839304</v>
       </c>
       <c r="E2018" t="s">
         <v>2686</v>
@@ -43835,7 +43835,7 @@
         <v>3</v>
       </c>
       <c r="D2082">
-        <v>45.51584089795055</v>
+        <v>45.51961847115064</v>
       </c>
       <c r="E2082" t="s">
         <v>2687</v>
@@ -43852,7 +43852,7 @@
         <v>1</v>
       </c>
       <c r="D2083">
-        <v>546.1900907754066</v>
+        <v>546.2354216538077</v>
       </c>
       <c r="E2083" t="s">
         <v>2686</v>
@@ -43971,7 +43971,7 @@
         <v>2</v>
       </c>
       <c r="D2090">
-        <v>138.9540462117093</v>
+        <v>138.9533519747102</v>
       </c>
       <c r="E2090" t="s">
         <v>2686</v>
@@ -44260,7 +44260,7 @@
         <v>1</v>
       </c>
       <c r="D2107">
-        <v>781.5</v>
+        <v>781</v>
       </c>
       <c r="E2107" t="s">
         <v>2686</v>
@@ -44991,7 +44991,7 @@
         <v>3</v>
       </c>
       <c r="D2150">
-        <v>47.62011750925099</v>
+        <v>47.62011753175526</v>
       </c>
       <c r="E2150" t="s">
         <v>2687</v>
@@ -45008,7 +45008,7 @@
         <v>1</v>
       </c>
       <c r="D2151">
-        <v>571.4414101110119</v>
+        <v>571.4414103810631</v>
       </c>
       <c r="E2151" t="s">
         <v>2686</v>
@@ -46300,7 +46300,7 @@
         <v>2</v>
       </c>
       <c r="D2227">
-        <v>138.9613918882009</v>
+        <v>138.9591468267431</v>
       </c>
       <c r="E2227" t="s">
         <v>2686</v>
@@ -47473,7 +47473,7 @@
         <v>1</v>
       </c>
       <c r="D2296">
-        <v>358.25</v>
+        <v>358</v>
       </c>
       <c r="E2296" t="s">
         <v>2686</v>
@@ -48000,7 +48000,7 @@
         <v>1</v>
       </c>
       <c r="D2327">
-        <v>1050</v>
+        <v>1049.25</v>
       </c>
       <c r="E2327" t="s">
         <v>2686</v>
@@ -48017,7 +48017,7 @@
         <v>1</v>
       </c>
       <c r="D2328">
-        <v>875.75</v>
+        <v>871</v>
       </c>
       <c r="E2328" t="s">
         <v>2686</v>
@@ -48748,7 +48748,7 @@
         <v>3</v>
       </c>
       <c r="D2371">
-        <v>197.3454856613852</v>
+        <v>197.3298693385597</v>
       </c>
       <c r="E2371" t="s">
         <v>2687</v>
@@ -48765,7 +48765,7 @@
         <v>1</v>
       </c>
       <c r="D2372">
-        <v>789.3819426455408</v>
+        <v>789.3194773542389</v>
       </c>
       <c r="E2372" t="s">
         <v>2686</v>
@@ -51723,7 +51723,7 @@
         <v>1</v>
       </c>
       <c r="D2546">
-        <v>148.2062539546463</v>
+        <v>148.2079108041352</v>
       </c>
       <c r="E2546" t="s">
         <v>2686</v>
@@ -52046,7 +52046,7 @@
         <v>1</v>
       </c>
       <c r="D2565">
-        <v>216.1699712350733</v>
+        <v>216.181981489013</v>
       </c>
       <c r="E2565" t="s">
         <v>2686</v>
@@ -60308,7 +60308,7 @@
         <v>4</v>
       </c>
       <c r="D3051">
-        <v>58.4226660645315</v>
+        <v>58.42266418548981</v>
       </c>
       <c r="E3051" t="s">
         <v>2687</v>
@@ -60325,7 +60325,7 @@
         <v>1</v>
       </c>
       <c r="D3052">
-        <v>1402.143985548756</v>
+        <v>1402.143940451755</v>
       </c>
       <c r="E3052" t="s">
         <v>2686</v>
@@ -60444,7 +60444,7 @@
         <v>3</v>
       </c>
       <c r="D3059">
-        <v>35.69333872545662</v>
+        <v>35.69334374223093</v>
       </c>
       <c r="E3059" t="s">
         <v>2687</v>
@@ -60461,7 +60461,7 @@
         <v>1</v>
       </c>
       <c r="D3060">
-        <v>1284.960194116438</v>
+        <v>1284.960374720313</v>
       </c>
       <c r="E3060" t="s">
         <v>2686</v>
@@ -60614,7 +60614,7 @@
         <v>3</v>
       </c>
       <c r="D3069">
-        <v>17.36970252842673</v>
+        <v>17.3697066746684</v>
       </c>
       <c r="E3069" t="s">
         <v>2687</v>
@@ -60631,7 +60631,7 @@
         <v>1</v>
       </c>
       <c r="D3070">
-        <v>1250.618582046724</v>
+        <v>1250.618880576125</v>
       </c>
       <c r="E3070" t="s">
         <v>2686</v>
@@ -60903,7 +60903,7 @@
         <v>3</v>
       </c>
       <c r="D3086">
-        <v>35.69350155095399</v>
+        <v>35.69350270768219</v>
       </c>
       <c r="E3086" t="s">
         <v>2687</v>
@@ -60920,7 +60920,7 @@
         <v>1</v>
       </c>
       <c r="D3087">
-        <v>1284.966055834344</v>
+        <v>1284.966097476559</v>
       </c>
       <c r="E3087" t="s">
         <v>2686</v>
@@ -61362,7 +61362,7 @@
         <v>29</v>
       </c>
       <c r="D3113">
-        <v>281.5</v>
+        <v>281.75</v>
       </c>
       <c r="E3113" t="s">
         <v>2686</v>
@@ -62943,7 +62943,7 @@
         <v>3</v>
       </c>
       <c r="D3206">
-        <v>17.36874648934799</v>
+        <v>17.36879309078777</v>
       </c>
       <c r="E3206" t="s">
         <v>2687</v>
@@ -62960,7 +62960,7 @@
         <v>1</v>
       </c>
       <c r="D3207">
-        <v>1250.549747233055</v>
+        <v>1250.553102536719</v>
       </c>
       <c r="E3207" t="s">
         <v>2686</v>
